--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.6842765768831</v>
+        <v>21.68427657688305</v>
       </c>
       <c r="C2">
-        <v>15.46209873056411</v>
+        <v>15.46209873056423</v>
       </c>
       <c r="D2">
-        <v>7.311856203801979</v>
+        <v>7.311856203802007</v>
       </c>
       <c r="E2">
-        <v>11.62431567392907</v>
+        <v>11.62431567392905</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.74001869491364</v>
+        <v>63.74001869491358</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.57934722988043</v>
+        <v>18.57934722988041</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.98065788299701</v>
+        <v>19.98065788299712</v>
       </c>
       <c r="C3">
-        <v>14.2332060834692</v>
+        <v>14.23320608346931</v>
       </c>
       <c r="D3">
-        <v>6.761031412800313</v>
+        <v>6.761031412800262</v>
       </c>
       <c r="E3">
-        <v>10.91980934677378</v>
+        <v>10.91980934677381</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.54930623027067</v>
+        <v>59.54930623027114</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18434020905682</v>
+        <v>17.18434020905686</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89886313295815</v>
+        <v>18.89886313295806</v>
       </c>
       <c r="C4">
-        <v>13.45613022641624</v>
+        <v>13.45613022641611</v>
       </c>
       <c r="D4">
-        <v>6.409657865470606</v>
+        <v>6.409657865470561</v>
       </c>
       <c r="E4">
-        <v>10.47965410118753</v>
+        <v>10.47965410118746</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90922780728573</v>
+        <v>56.90922780728535</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.29654468568634</v>
+        <v>16.29654468568632</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44841927706668</v>
+        <v>18.44841927706682</v>
       </c>
       <c r="C5">
-        <v>13.13324815448215</v>
+        <v>13.13324815448211</v>
       </c>
       <c r="D5">
-        <v>6.262983526190816</v>
+        <v>6.262983526190788</v>
       </c>
       <c r="E5">
-        <v>10.29833052228725</v>
+        <v>10.29833052228728</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.81582409707691</v>
+        <v>55.81582409707693</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.92641370365779</v>
+        <v>15.92641370365781</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37302725824504</v>
+        <v>18.37302725824519</v>
       </c>
       <c r="C6">
-        <v>13.0792435827561</v>
+        <v>13.07924358275594</v>
       </c>
       <c r="D6">
-        <v>6.2384130309354</v>
+        <v>6.238413030935557</v>
       </c>
       <c r="E6">
-        <v>10.26810344386053</v>
+        <v>10.26810344386057</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.63319067266859</v>
+        <v>55.63319067266933</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.8644365460652</v>
+        <v>15.86443654606529</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89282791524538</v>
+        <v>18.8928279152453</v>
       </c>
       <c r="C7">
-        <v>13.45180157531065</v>
+        <v>13.45180157531083</v>
       </c>
       <c r="D7">
-        <v>6.40769409899844</v>
+        <v>6.407694098998333</v>
       </c>
       <c r="E7">
-        <v>10.47721665086221</v>
+        <v>10.47721665086213</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.89455354737154</v>
+        <v>56.8945535473709</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.29158736497482</v>
+        <v>16.2915873649748</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>21.10389434838257</v>
       </c>
       <c r="C8">
-        <v>15.04269547227072</v>
+        <v>15.04269547227051</v>
       </c>
       <c r="D8">
-        <v>7.124550549773957</v>
+        <v>7.124550549773969</v>
       </c>
       <c r="E8">
-        <v>11.38292653592059</v>
+        <v>11.38292653592062</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.30842591375797</v>
+        <v>62.30842591375841</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.10452058649527</v>
+        <v>18.10452058649521</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.18949499435593</v>
+        <v>25.18949499435594</v>
       </c>
       <c r="C9">
-        <v>18.01356476078153</v>
+        <v>18.01356476078132</v>
       </c>
       <c r="D9">
-        <v>8.435285162070844</v>
+        <v>8.435285162070763</v>
       </c>
       <c r="E9">
-        <v>13.10479205472465</v>
+        <v>13.10479205472463</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.44534442678351</v>
+        <v>72.44534442678344</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.43798656820478</v>
+        <v>21.43798656820474</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.09771057405309</v>
+        <v>28.09771057405319</v>
       </c>
       <c r="C10">
-        <v>20.15795747436358</v>
+        <v>20.15795747436338</v>
       </c>
       <c r="D10">
-        <v>9.356676686045235</v>
+        <v>9.35667668604521</v>
       </c>
       <c r="E10">
-        <v>14.35162333865907</v>
+        <v>14.35162333865909</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.70766438129122</v>
+        <v>79.70766438129181</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.79777223721968</v>
+        <v>23.79777223721972</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.41869148138488</v>
+        <v>29.41869148138495</v>
       </c>
       <c r="C11">
-        <v>21.14135514119086</v>
+        <v>21.14135514119105</v>
       </c>
       <c r="D11">
-        <v>9.771751657362749</v>
+        <v>9.771751657362733</v>
       </c>
       <c r="E11">
-        <v>14.92052675166273</v>
+        <v>14.92052675166275</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.00812985276528</v>
+        <v>83.00812985276546</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.86590919239226</v>
+        <v>24.86590919239231</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.92072372246821</v>
+        <v>29.92072372246818</v>
       </c>
       <c r="C12">
         <v>21.51674016601978</v>
       </c>
       <c r="D12">
-        <v>9.928905422795456</v>
+        <v>9.928905422795403</v>
       </c>
       <c r="E12">
-        <v>15.13690405913276</v>
+        <v>15.13690405913278</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.26188757795268</v>
+        <v>84.26188757795312</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.2712151957956</v>
+        <v>25.27121519579556</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.8124815626223</v>
+        <v>29.81248156262225</v>
       </c>
       <c r="C13">
-        <v>21.43572533255778</v>
+        <v>21.43572533255766</v>
       </c>
       <c r="D13">
-        <v>9.895049997480088</v>
+        <v>9.895049997480072</v>
       </c>
       <c r="E13">
-        <v>15.09024745428249</v>
+        <v>15.09024745428247</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.99160715428425</v>
+        <v>83.99160715428424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.18385796134196</v>
+        <v>25.18385796134194</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.45994353860379</v>
+        <v>29.45994353860402</v>
       </c>
       <c r="C14">
-        <v>21.17216561264639</v>
+        <v>21.17216561264661</v>
       </c>
       <c r="D14">
-        <v>9.784677519676844</v>
+        <v>9.784677519676952</v>
       </c>
       <c r="E14">
-        <v>14.93830440083414</v>
+        <v>14.93830440083422</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.11116782725927</v>
+        <v>83.11116782726053</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.89922656711017</v>
+        <v>24.89922656711033</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.24431172518324</v>
+        <v>29.2443117251832</v>
       </c>
       <c r="C15">
-        <v>21.01118229221091</v>
+        <v>21.0111822922106</v>
       </c>
       <c r="D15">
-        <v>9.717087179411477</v>
+        <v>9.717087179411491</v>
       </c>
       <c r="E15">
-        <v>14.8453829835077</v>
+        <v>14.84538298350766</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.57254194427141</v>
+        <v>82.57254194427107</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.72504454197227</v>
+        <v>24.72504454197228</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01150657785094</v>
+        <v>28.0115065778508</v>
       </c>
       <c r="C16">
-        <v>20.09399571904535</v>
+        <v>20.0939957190452</v>
       </c>
       <c r="D16">
         <v>9.329512915640866</v>
       </c>
       <c r="E16">
-        <v>14.31453317221026</v>
+        <v>14.31453317221029</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.49225216813589</v>
+        <v>79.49225216813586</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.72798549432383</v>
+        <v>23.72798549432379</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.2560196522681</v>
+        <v>27.256019652268</v>
       </c>
       <c r="C17">
-        <v>19.53451511082435</v>
+        <v>19.53451511082431</v>
       </c>
       <c r="D17">
-        <v>9.091056963918295</v>
+        <v>9.091056963918311</v>
       </c>
       <c r="E17">
         <v>13.98974032671724</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.60449407309331</v>
+        <v>77.60449407309325</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.11595197577077</v>
+        <v>23.11595197577074</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.82114286769782</v>
+        <v>26.82114286769785</v>
       </c>
       <c r="C18">
-        <v>19.21332332581306</v>
+        <v>19.21332332581288</v>
       </c>
       <c r="D18">
-        <v>8.953479212804769</v>
+        <v>8.953479212804719</v>
       </c>
       <c r="E18">
-        <v>13.80303591256527</v>
+        <v>13.80303591256525</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.5180732224988</v>
+        <v>76.51807322249859</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.76330643346702</v>
+        <v>22.76330643346696</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.6737882895877</v>
+        <v>26.6737882895879</v>
       </c>
       <c r="C19">
-        <v>19.10462935774223</v>
+        <v>19.10462935774203</v>
       </c>
       <c r="D19">
-        <v>8.906810307148168</v>
+        <v>8.906810307148131</v>
       </c>
       <c r="E19">
-        <v>13.73982187627444</v>
+        <v>13.73982187627447</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.15000857180225</v>
+        <v>76.15000857180264</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.3364645468518</v>
+        <v>27.33646454685167</v>
       </c>
       <c r="C20">
-        <v>19.59399824093204</v>
+        <v>19.59399824093214</v>
       </c>
       <c r="D20">
-        <v>9.116481353460879</v>
+        <v>9.116481353460944</v>
       </c>
       <c r="E20">
-        <v>14.02429958783031</v>
+        <v>14.02429958783032</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.80548703062074</v>
+        <v>77.80548703062027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.18115804874929</v>
+        <v>23.18115804874924</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.56342366388659</v>
+        <v>29.5634236638865</v>
       </c>
       <c r="C21">
-        <v>21.24948059125621</v>
+        <v>21.24948059125594</v>
       </c>
       <c r="D21">
-        <v>9.817092017320771</v>
+        <v>9.817092017320784</v>
       </c>
       <c r="E21">
         <v>14.98290128804422</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.36962486861808</v>
+        <v>83.36962486861758</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.98279220224295</v>
+        <v>24.98279220224288</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.03087995903992</v>
+        <v>31.03087995903978</v>
       </c>
       <c r="C22">
-        <v>22.35020866195742</v>
+        <v>22.35020866195728</v>
       </c>
       <c r="D22">
-        <v>10.27522298203521</v>
+        <v>10.27522298203518</v>
       </c>
       <c r="E22">
         <v>15.6154378250994</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.03230311569526</v>
+        <v>87.03230311569425</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.16620535782854</v>
+        <v>26.16620535782846</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.24570060990413</v>
+        <v>30.24570060990405</v>
       </c>
       <c r="C23">
-        <v>21.76023565691229</v>
+        <v>21.76023565691232</v>
       </c>
       <c r="D23">
-        <v>10.0304560382101</v>
+        <v>10.03045603821019</v>
       </c>
       <c r="E23">
-        <v>15.27698875853074</v>
+        <v>15.27698875853069</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.07320228195432</v>
+        <v>85.07320228195417</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.53338923537073</v>
+        <v>25.53338923537066</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.30009723216551</v>
+        <v>27.30009723216534</v>
       </c>
       <c r="C24">
-        <v>19.56710461364732</v>
+        <v>19.56710461364704</v>
       </c>
       <c r="D24">
-        <v>9.104988541340262</v>
+        <v>9.104988541340161</v>
       </c>
       <c r="E24">
-        <v>14.00867532255787</v>
+        <v>14.00867532255791</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.714621925909</v>
+        <v>77.71462192590896</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.15168092397893</v>
+        <v>23.15168092397884</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.10571468500775</v>
+        <v>24.10571468500782</v>
       </c>
       <c r="C25">
-        <v>17.22108069534819</v>
+        <v>17.22108069534818</v>
       </c>
       <c r="D25">
-        <v>8.089387795148392</v>
+        <v>8.089387795148575</v>
       </c>
       <c r="E25">
-        <v>12.64362685786015</v>
+        <v>12.64362685786021</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.74538914447209</v>
+        <v>69.74538914447224</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.55578522793336</v>
+        <v>20.55578522793341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.68427657688305</v>
+        <v>21.6842765768831</v>
       </c>
       <c r="C2">
-        <v>15.46209873056423</v>
+        <v>15.46209873056411</v>
       </c>
       <c r="D2">
-        <v>7.311856203802007</v>
+        <v>7.311856203801979</v>
       </c>
       <c r="E2">
-        <v>11.62431567392905</v>
+        <v>11.62431567392907</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.74001869491358</v>
+        <v>63.74001869491364</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.57934722988041</v>
+        <v>18.57934722988043</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.98065788299712</v>
+        <v>19.98065788299701</v>
       </c>
       <c r="C3">
-        <v>14.23320608346931</v>
+        <v>14.2332060834692</v>
       </c>
       <c r="D3">
-        <v>6.761031412800262</v>
+        <v>6.761031412800313</v>
       </c>
       <c r="E3">
-        <v>10.91980934677381</v>
+        <v>10.91980934677378</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.54930623027114</v>
+        <v>59.54930623027067</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18434020905686</v>
+        <v>17.18434020905682</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89886313295806</v>
+        <v>18.89886313295815</v>
       </c>
       <c r="C4">
-        <v>13.45613022641611</v>
+        <v>13.45613022641624</v>
       </c>
       <c r="D4">
-        <v>6.409657865470561</v>
+        <v>6.409657865470606</v>
       </c>
       <c r="E4">
-        <v>10.47965410118746</v>
+        <v>10.47965410118753</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90922780728535</v>
+        <v>56.90922780728573</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.29654468568632</v>
+        <v>16.29654468568634</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44841927706682</v>
+        <v>18.44841927706668</v>
       </c>
       <c r="C5">
-        <v>13.13324815448211</v>
+        <v>13.13324815448215</v>
       </c>
       <c r="D5">
-        <v>6.262983526190788</v>
+        <v>6.262983526190816</v>
       </c>
       <c r="E5">
-        <v>10.29833052228728</v>
+        <v>10.29833052228725</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.81582409707693</v>
+        <v>55.81582409707691</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.92641370365781</v>
+        <v>15.92641370365779</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37302725824519</v>
+        <v>18.37302725824504</v>
       </c>
       <c r="C6">
-        <v>13.07924358275594</v>
+        <v>13.0792435827561</v>
       </c>
       <c r="D6">
-        <v>6.238413030935557</v>
+        <v>6.2384130309354</v>
       </c>
       <c r="E6">
-        <v>10.26810344386057</v>
+        <v>10.26810344386053</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.63319067266933</v>
+        <v>55.63319067266859</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.86443654606529</v>
+        <v>15.8644365460652</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8928279152453</v>
+        <v>18.89282791524538</v>
       </c>
       <c r="C7">
-        <v>13.45180157531083</v>
+        <v>13.45180157531065</v>
       </c>
       <c r="D7">
-        <v>6.407694098998333</v>
+        <v>6.40769409899844</v>
       </c>
       <c r="E7">
-        <v>10.47721665086213</v>
+        <v>10.47721665086221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.8945535473709</v>
+        <v>56.89455354737154</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.2915873649748</v>
+        <v>16.29158736497482</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>21.10389434838257</v>
       </c>
       <c r="C8">
-        <v>15.04269547227051</v>
+        <v>15.04269547227072</v>
       </c>
       <c r="D8">
-        <v>7.124550549773969</v>
+        <v>7.124550549773957</v>
       </c>
       <c r="E8">
-        <v>11.38292653592062</v>
+        <v>11.38292653592059</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.30842591375841</v>
+        <v>62.30842591375797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.10452058649521</v>
+        <v>18.10452058649527</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.18949499435594</v>
+        <v>25.18949499435593</v>
       </c>
       <c r="C9">
-        <v>18.01356476078132</v>
+        <v>18.01356476078153</v>
       </c>
       <c r="D9">
-        <v>8.435285162070763</v>
+        <v>8.435285162070844</v>
       </c>
       <c r="E9">
-        <v>13.10479205472463</v>
+        <v>13.10479205472465</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.44534442678344</v>
+        <v>72.44534442678351</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.43798656820474</v>
+        <v>21.43798656820478</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.09771057405319</v>
+        <v>28.09771057405309</v>
       </c>
       <c r="C10">
-        <v>20.15795747436338</v>
+        <v>20.15795747436358</v>
       </c>
       <c r="D10">
-        <v>9.35667668604521</v>
+        <v>9.356676686045235</v>
       </c>
       <c r="E10">
-        <v>14.35162333865909</v>
+        <v>14.35162333865907</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.70766438129181</v>
+        <v>79.70766438129122</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.79777223721972</v>
+        <v>23.79777223721968</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.41869148138495</v>
+        <v>29.41869148138488</v>
       </c>
       <c r="C11">
-        <v>21.14135514119105</v>
+        <v>21.14135514119086</v>
       </c>
       <c r="D11">
-        <v>9.771751657362733</v>
+        <v>9.771751657362749</v>
       </c>
       <c r="E11">
-        <v>14.92052675166275</v>
+        <v>14.92052675166273</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.00812985276546</v>
+        <v>83.00812985276528</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.86590919239231</v>
+        <v>24.86590919239226</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.92072372246818</v>
+        <v>29.92072372246821</v>
       </c>
       <c r="C12">
         <v>21.51674016601978</v>
       </c>
       <c r="D12">
-        <v>9.928905422795403</v>
+        <v>9.928905422795456</v>
       </c>
       <c r="E12">
-        <v>15.13690405913278</v>
+        <v>15.13690405913276</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.26188757795312</v>
+        <v>84.26188757795268</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.27121519579556</v>
+        <v>25.2712151957956</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.81248156262225</v>
+        <v>29.8124815626223</v>
       </c>
       <c r="C13">
-        <v>21.43572533255766</v>
+        <v>21.43572533255778</v>
       </c>
       <c r="D13">
-        <v>9.895049997480072</v>
+        <v>9.895049997480088</v>
       </c>
       <c r="E13">
-        <v>15.09024745428247</v>
+        <v>15.09024745428249</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.99160715428424</v>
+        <v>83.99160715428425</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.18385796134194</v>
+        <v>25.18385796134196</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.45994353860402</v>
+        <v>29.45994353860379</v>
       </c>
       <c r="C14">
-        <v>21.17216561264661</v>
+        <v>21.17216561264639</v>
       </c>
       <c r="D14">
-        <v>9.784677519676952</v>
+        <v>9.784677519676844</v>
       </c>
       <c r="E14">
-        <v>14.93830440083422</v>
+        <v>14.93830440083414</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.11116782726053</v>
+        <v>83.11116782725927</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.89922656711033</v>
+        <v>24.89922656711017</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.2443117251832</v>
+        <v>29.24431172518324</v>
       </c>
       <c r="C15">
-        <v>21.0111822922106</v>
+        <v>21.01118229221091</v>
       </c>
       <c r="D15">
-        <v>9.717087179411491</v>
+        <v>9.717087179411477</v>
       </c>
       <c r="E15">
-        <v>14.84538298350766</v>
+        <v>14.8453829835077</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.57254194427107</v>
+        <v>82.57254194427141</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.72504454197228</v>
+        <v>24.72504454197227</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.0115065778508</v>
+        <v>28.01150657785094</v>
       </c>
       <c r="C16">
-        <v>20.0939957190452</v>
+        <v>20.09399571904535</v>
       </c>
       <c r="D16">
         <v>9.329512915640866</v>
       </c>
       <c r="E16">
-        <v>14.31453317221029</v>
+        <v>14.31453317221026</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.49225216813586</v>
+        <v>79.49225216813589</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.72798549432379</v>
+        <v>23.72798549432383</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.256019652268</v>
+        <v>27.2560196522681</v>
       </c>
       <c r="C17">
-        <v>19.53451511082431</v>
+        <v>19.53451511082435</v>
       </c>
       <c r="D17">
-        <v>9.091056963918311</v>
+        <v>9.091056963918295</v>
       </c>
       <c r="E17">
         <v>13.98974032671724</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.60449407309325</v>
+        <v>77.60449407309331</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.11595197577074</v>
+        <v>23.11595197577077</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.82114286769785</v>
+        <v>26.82114286769782</v>
       </c>
       <c r="C18">
-        <v>19.21332332581288</v>
+        <v>19.21332332581306</v>
       </c>
       <c r="D18">
-        <v>8.953479212804719</v>
+        <v>8.953479212804769</v>
       </c>
       <c r="E18">
-        <v>13.80303591256525</v>
+        <v>13.80303591256527</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.51807322249859</v>
+        <v>76.5180732224988</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.76330643346696</v>
+        <v>22.76330643346702</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.6737882895879</v>
+        <v>26.6737882895877</v>
       </c>
       <c r="C19">
-        <v>19.10462935774203</v>
+        <v>19.10462935774223</v>
       </c>
       <c r="D19">
-        <v>8.906810307148131</v>
+        <v>8.906810307148168</v>
       </c>
       <c r="E19">
-        <v>13.73982187627447</v>
+        <v>13.73982187627444</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.15000857180264</v>
+        <v>76.15000857180225</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.33646454685167</v>
+        <v>27.3364645468518</v>
       </c>
       <c r="C20">
-        <v>19.59399824093214</v>
+        <v>19.59399824093204</v>
       </c>
       <c r="D20">
-        <v>9.116481353460944</v>
+        <v>9.116481353460879</v>
       </c>
       <c r="E20">
-        <v>14.02429958783032</v>
+        <v>14.02429958783031</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.80548703062027</v>
+        <v>77.80548703062074</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.18115804874924</v>
+        <v>23.18115804874929</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.5634236638865</v>
+        <v>29.56342366388659</v>
       </c>
       <c r="C21">
-        <v>21.24948059125594</v>
+        <v>21.24948059125621</v>
       </c>
       <c r="D21">
-        <v>9.817092017320784</v>
+        <v>9.817092017320771</v>
       </c>
       <c r="E21">
         <v>14.98290128804422</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.36962486861758</v>
+        <v>83.36962486861808</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.98279220224288</v>
+        <v>24.98279220224295</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.03087995903978</v>
+        <v>31.03087995903992</v>
       </c>
       <c r="C22">
-        <v>22.35020866195728</v>
+        <v>22.35020866195742</v>
       </c>
       <c r="D22">
-        <v>10.27522298203518</v>
+        <v>10.27522298203521</v>
       </c>
       <c r="E22">
         <v>15.6154378250994</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.03230311569425</v>
+        <v>87.03230311569526</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.16620535782846</v>
+        <v>26.16620535782854</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.24570060990405</v>
+        <v>30.24570060990413</v>
       </c>
       <c r="C23">
-        <v>21.76023565691232</v>
+        <v>21.76023565691229</v>
       </c>
       <c r="D23">
-        <v>10.03045603821019</v>
+        <v>10.0304560382101</v>
       </c>
       <c r="E23">
-        <v>15.27698875853069</v>
+        <v>15.27698875853074</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.07320228195417</v>
+        <v>85.07320228195432</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.53338923537066</v>
+        <v>25.53338923537073</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.30009723216534</v>
+        <v>27.30009723216551</v>
       </c>
       <c r="C24">
-        <v>19.56710461364704</v>
+        <v>19.56710461364732</v>
       </c>
       <c r="D24">
-        <v>9.104988541340161</v>
+        <v>9.104988541340262</v>
       </c>
       <c r="E24">
-        <v>14.00867532255791</v>
+        <v>14.00867532255787</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.71462192590896</v>
+        <v>77.714621925909</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.15168092397884</v>
+        <v>23.15168092397893</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.10571468500782</v>
+        <v>24.10571468500775</v>
       </c>
       <c r="C25">
-        <v>17.22108069534818</v>
+        <v>17.22108069534819</v>
       </c>
       <c r="D25">
-        <v>8.089387795148575</v>
+        <v>8.089387795148392</v>
       </c>
       <c r="E25">
-        <v>12.64362685786021</v>
+        <v>12.64362685786015</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.74538914447224</v>
+        <v>69.74538914447209</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.55578522793341</v>
+        <v>20.55578522793336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.6842765768831</v>
+        <v>21.67932695105149</v>
       </c>
       <c r="C2">
-        <v>15.46209873056411</v>
+        <v>15.45602557229249</v>
       </c>
       <c r="D2">
-        <v>7.311856203801979</v>
+        <v>7.311231562843094</v>
       </c>
       <c r="E2">
-        <v>11.62431567392907</v>
+        <v>11.62242000055594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.74001869491364</v>
+        <v>63.20578543207209</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.72567547831574</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.57934722988043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.57632459880948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.98065788299701</v>
+        <v>19.97695518151062</v>
       </c>
       <c r="C3">
-        <v>14.2332060834692</v>
+        <v>14.22850928742323</v>
       </c>
       <c r="D3">
-        <v>6.761031412800313</v>
+        <v>6.760577599760007</v>
       </c>
       <c r="E3">
-        <v>10.91980934677378</v>
+        <v>10.91821626926044</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.54930623027067</v>
+        <v>58.85261971853233</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.53818541566027</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18434020905682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.1820280131128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89886313295815</v>
+        <v>18.89585733124693</v>
       </c>
       <c r="C4">
-        <v>13.45613022641624</v>
+        <v>13.45222199825642</v>
       </c>
       <c r="D4">
-        <v>6.409657865470606</v>
+        <v>6.409295822937954</v>
       </c>
       <c r="E4">
-        <v>10.47965410118753</v>
+        <v>10.47824972741437</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90922780728573</v>
+        <v>56.10052426376298</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>56.90010715485817</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.29654468568634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.29463211858277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44841927706668</v>
+        <v>18.44568313169468</v>
       </c>
       <c r="C5">
-        <v>13.13324815448215</v>
+        <v>13.12965005926519</v>
       </c>
       <c r="D5">
-        <v>6.262983526190816</v>
+        <v>6.262656219086421</v>
       </c>
       <c r="E5">
-        <v>10.29833052228725</v>
+        <v>10.29700466491568</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.81582409707691</v>
+        <v>54.95820797411892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>55.80753225571083</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.92641370365779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.92465680704777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37302725824504</v>
+        <v>18.37033509676526</v>
       </c>
       <c r="C6">
-        <v>13.0792435827561</v>
+        <v>13.07569638428964</v>
       </c>
       <c r="D6">
-        <v>6.2384130309354</v>
+        <v>6.238091347005108</v>
       </c>
       <c r="E6">
-        <v>10.26810344386053</v>
+        <v>10.26679074524173</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.63319067266859</v>
+        <v>54.76724987250437</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.62503750979486</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.8644365460652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.86270511627911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89282791524538</v>
+        <v>18.88982580485421</v>
       </c>
       <c r="C7">
-        <v>13.45180157531065</v>
+        <v>13.44789757158092</v>
       </c>
       <c r="D7">
-        <v>6.40769409899844</v>
+        <v>6.407332534951676</v>
       </c>
       <c r="E7">
-        <v>10.47721665086221</v>
+        <v>10.47581332836192</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.89455354737154</v>
+        <v>56.08520382099999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>56.88544400668248</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.29158736497482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.28967692399616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.10389434838257</v>
+        <v>21.0993909233306</v>
       </c>
       <c r="C8">
-        <v>15.04269547227072</v>
+        <v>15.03711062085815</v>
       </c>
       <c r="D8">
-        <v>7.124550549773957</v>
+        <v>7.123987962237094</v>
       </c>
       <c r="E8">
-        <v>11.38292653592059</v>
+        <v>11.38113517419617</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.30842591375797</v>
+        <v>61.72062329549108</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.29519461973739</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.10452058649527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.1017518569602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.18949499435593</v>
+        <v>25.18132260045135</v>
       </c>
       <c r="C9">
-        <v>18.01356476078153</v>
+        <v>18.00405809393432</v>
       </c>
       <c r="D9">
-        <v>8.435285162070844</v>
+        <v>8.434185869020748</v>
       </c>
       <c r="E9">
-        <v>13.10479205472465</v>
+        <v>13.10221281021534</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.44534442678351</v>
+        <v>72.20167701069605</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.42375573834381</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.43798656820478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.43312452075471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.09771057405309</v>
+        <v>28.08604150786359</v>
       </c>
       <c r="C10">
-        <v>20.15795747436358</v>
+        <v>20.14484153482438</v>
       </c>
       <c r="D10">
-        <v>9.356676686045235</v>
+        <v>9.355019206225178</v>
       </c>
       <c r="E10">
-        <v>14.35162333865907</v>
+        <v>14.34835327949128</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.70766438129122</v>
+        <v>79.67022012634388</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.6789551817852</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.79777223721968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.7908845278238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.41869148138488</v>
+        <v>29.40512788542958</v>
       </c>
       <c r="C11">
-        <v>21.14135514119086</v>
+        <v>21.12631596008725</v>
       </c>
       <c r="D11">
-        <v>9.771751657362749</v>
+        <v>9.76977645716474</v>
       </c>
       <c r="E11">
-        <v>14.92052675166273</v>
+        <v>14.91688410983061</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.00812985276528</v>
+        <v>83.05593888766546</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>83.0559388876879</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.86590919239226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.85790797374621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.92072372246821</v>
+        <v>29.90638200396409</v>
       </c>
       <c r="C12">
-        <v>21.51674016601978</v>
+        <v>21.50091622097866</v>
       </c>
       <c r="D12">
-        <v>9.928905422795456</v>
+        <v>9.926796986036337</v>
       </c>
       <c r="E12">
-        <v>15.13690405913276</v>
+        <v>15.13310743974937</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.26188757795268</v>
+        <v>84.34086753117694</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>84.34086753117688</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.2712151957956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.26275333820875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.8124815626223</v>
+        <v>29.79831047831045</v>
       </c>
       <c r="C13">
-        <v>21.43572533255778</v>
+        <v>21.42007324231828</v>
       </c>
       <c r="D13">
-        <v>9.895049997480088</v>
+        <v>9.892970908495704</v>
       </c>
       <c r="E13">
-        <v>15.09024745428249</v>
+        <v>15.08648466401102</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.99160715428425</v>
+        <v>84.06392154182825</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>84.06392154182825</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.18385796134196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.17549728034208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.45994353860379</v>
+        <v>29.44631726648519</v>
       </c>
       <c r="C14">
-        <v>21.17216561264639</v>
+        <v>21.15706311662901</v>
       </c>
       <c r="D14">
-        <v>9.784677519676844</v>
+        <v>9.782691644514468</v>
       </c>
       <c r="E14">
-        <v>14.93830440083414</v>
+        <v>14.93464938256668</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.11116782725927</v>
+        <v>83.16156295037344</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>83.16156295037341</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.89922656711017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.89118831571204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.24431172518324</v>
+        <v>29.23101063208071</v>
       </c>
       <c r="C15">
-        <v>21.01118229221091</v>
+        <v>20.99640849361415</v>
       </c>
       <c r="D15">
-        <v>9.717087179411477</v>
+        <v>9.715156577997053</v>
       </c>
       <c r="E15">
-        <v>14.8453829835077</v>
+        <v>14.84179213245368</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.57254194427141</v>
+        <v>82.60936941466083</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>82.60936941466082</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.72504454197227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.71719829023506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01150657785094</v>
+        <v>27.99995390959759</v>
       </c>
       <c r="C16">
-        <v>20.09399571904535</v>
+        <v>20.08099858085873</v>
       </c>
       <c r="D16">
-        <v>9.329512915640866</v>
+        <v>9.327874630577181</v>
       </c>
       <c r="E16">
-        <v>14.31453317221026</v>
+        <v>14.3112859462705</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.49225216813589</v>
+        <v>79.44907438928746</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.46377404769413</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.72798549432383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.72116582535359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.2560196522681</v>
+        <v>27.2454516861007</v>
       </c>
       <c r="C17">
-        <v>19.53451511082435</v>
+        <v>19.52252632578185</v>
       </c>
       <c r="D17">
-        <v>9.091056963918295</v>
+        <v>9.08957945997569</v>
       </c>
       <c r="E17">
-        <v>13.98974032671724</v>
+        <v>13.98668631910317</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.60449407309331</v>
+        <v>77.51012920250052</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.5779834798515</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.11595197577077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23.10970619800086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.82114286769782</v>
+        <v>26.81111400123049</v>
       </c>
       <c r="C18">
-        <v>19.21332332581306</v>
+        <v>19.20188928142998</v>
       </c>
       <c r="D18">
-        <v>8.953479212804769</v>
+        <v>8.952088475122581</v>
       </c>
       <c r="E18">
-        <v>13.80303591256527</v>
+        <v>13.8000879017262</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.5180732224988</v>
+        <v>76.39345466318036</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.49265104559898</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.76330643346702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.75737355805883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.6737882895877</v>
+        <v>26.66393768068577</v>
       </c>
       <c r="C19">
-        <v>19.10462935774223</v>
+        <v>19.0933791938204</v>
       </c>
       <c r="D19">
-        <v>8.906810307148168</v>
+        <v>8.905448056290838</v>
       </c>
       <c r="E19">
-        <v>13.73982187627444</v>
+        <v>13.73690897983242</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.15000857180225</v>
+        <v>76.01500345452513</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>76.12494834616477</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.64375875332851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.63792914378865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.3364645468518</v>
+        <v>27.32579468192504</v>
       </c>
       <c r="C20">
-        <v>19.59399824093204</v>
+        <v>19.58190482288468</v>
       </c>
       <c r="D20">
-        <v>9.116481353460879</v>
+        <v>9.114987347376244</v>
       </c>
       <c r="E20">
-        <v>14.02429958783031</v>
+        <v>14.02122557015217</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.80548703062074</v>
+        <v>77.71665430588222</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.77877167923415</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.18115804874929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.1748530254248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.56342366388659</v>
+        <v>29.54963918710147</v>
       </c>
       <c r="C21">
-        <v>21.24948059125621</v>
+        <v>21.23421836061641</v>
       </c>
       <c r="D21">
-        <v>9.817092017320771</v>
+        <v>9.815079151993832</v>
       </c>
       <c r="E21">
-        <v>14.98290128804422</v>
+        <v>14.97921501037147</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.36962486861808</v>
+        <v>83.42648748812618</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>83.42648748812616</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.98279220224295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.97466041899938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.03087995903992</v>
+        <v>31.01469199506533</v>
       </c>
       <c r="C22">
-        <v>22.35020866195742</v>
+        <v>22.33253308267386</v>
       </c>
       <c r="D22">
-        <v>10.27522298203521</v>
+        <v>10.27279253375525</v>
       </c>
       <c r="E22">
-        <v>15.6154378250994</v>
+        <v>15.61127246294035</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.03230311569526</v>
+        <v>87.17795305094036</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>87.17795305101393</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.16620535782854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.15664298477311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.24570060990413</v>
+        <v>30.23083685900013</v>
       </c>
       <c r="C23">
-        <v>21.76023565691229</v>
+        <v>21.74388673464834</v>
       </c>
       <c r="D23">
-        <v>10.0304560382101</v>
+        <v>10.02825737159022</v>
       </c>
       <c r="E23">
-        <v>15.27698875853074</v>
+        <v>15.27308839928579</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.07320228195432</v>
+        <v>85.172015337953</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>85.1720153379536</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.53338923537073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.52461727518635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.30009723216551</v>
+        <v>27.28947351865239</v>
       </c>
       <c r="C24">
-        <v>19.56710461364732</v>
+        <v>19.55505857686785</v>
       </c>
       <c r="D24">
-        <v>9.104988541340262</v>
+        <v>9.103502013273996</v>
       </c>
       <c r="E24">
-        <v>14.00867532255787</v>
+        <v>14.00561036696599</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.714621925909</v>
+        <v>77.62329069839575</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.68799927637245</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.15168092397893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.14540273784954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.10571468500775</v>
+        <v>24.0986425309687</v>
       </c>
       <c r="C25">
-        <v>17.22108069534819</v>
+        <v>17.21273127929046</v>
       </c>
       <c r="D25">
-        <v>8.089387795148392</v>
+        <v>8.088455372958938</v>
       </c>
       <c r="E25">
-        <v>12.64362685786015</v>
+        <v>12.64127177751229</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.74538914447209</v>
+        <v>69.41736950435188</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.72616170257557</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.55578522793336</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.55155333561996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.67932695105149</v>
+        <v>24.4129326909983</v>
       </c>
       <c r="C2">
-        <v>15.45602557229249</v>
+        <v>17.70528584930862</v>
       </c>
       <c r="D2">
-        <v>7.311231562843094</v>
+        <v>12.19174953768094</v>
       </c>
       <c r="E2">
-        <v>11.62242000055594</v>
+        <v>13.18862429265383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.20578543207209</v>
+        <v>2.084555697401729</v>
       </c>
       <c r="H2">
-        <v>63.72567547831574</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.871486376762689</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.57632459880948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.64029923080025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97695518151062</v>
+        <v>22.54754007331703</v>
       </c>
       <c r="C3">
-        <v>14.22850928742323</v>
+        <v>16.29921782647528</v>
       </c>
       <c r="D3">
-        <v>6.760577599760007</v>
+        <v>11.65527110791172</v>
       </c>
       <c r="E3">
-        <v>10.91821626926044</v>
+        <v>12.61999935502353</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.85261971853233</v>
+        <v>2.104805235370116</v>
       </c>
       <c r="H3">
-        <v>59.53818541566027</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.797963227215289</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.1820280131128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>60.80529273307674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89585733124693</v>
+        <v>21.44868875786739</v>
       </c>
       <c r="C4">
-        <v>13.45222199825642</v>
+        <v>15.4180022442264</v>
       </c>
       <c r="D4">
-        <v>6.409295822937954</v>
+        <v>11.33231342294009</v>
       </c>
       <c r="E4">
-        <v>10.47824972741437</v>
+        <v>12.27862256609517</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.10052426376298</v>
+        <v>2.11726032907255</v>
       </c>
       <c r="H4">
-        <v>56.90010715485817</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.758295392814775</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.29463211858277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.41641029283796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44568313169468</v>
+        <v>21.03199767658598</v>
       </c>
       <c r="C5">
-        <v>13.12965005926519</v>
+        <v>15.05393935853121</v>
       </c>
       <c r="D5">
-        <v>6.262656219086421</v>
+        <v>11.20224453108577</v>
       </c>
       <c r="E5">
-        <v>10.29700466491568</v>
+        <v>12.14136068124136</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.95820797411892</v>
+        <v>2.122355080785874</v>
       </c>
       <c r="H5">
-        <v>55.80753225571083</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.743411410025404</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.92465680704777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>57.43370761010362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37033509676526</v>
+        <v>20.96265803911789</v>
       </c>
       <c r="C6">
-        <v>13.07569638428964</v>
+        <v>14.99317670099896</v>
       </c>
       <c r="D6">
-        <v>6.238091347005108</v>
+        <v>11.18073821916569</v>
       </c>
       <c r="E6">
-        <v>10.26679074524173</v>
+        <v>12.11867838662452</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.76724987250437</v>
+        <v>2.12320258296208</v>
       </c>
       <c r="H6">
-        <v>55.62503750979486</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.741014708831709</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.86270511627911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.26996289312893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88982580485421</v>
+        <v>21.44307906563168</v>
       </c>
       <c r="C7">
-        <v>13.44789757158092</v>
+        <v>15.41311295322107</v>
       </c>
       <c r="D7">
-        <v>6.407332534951676</v>
+        <v>11.33055310754368</v>
       </c>
       <c r="E7">
-        <v>10.47581332836192</v>
+        <v>12.2767639989671</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.08520382099999</v>
+        <v>2.117328944278759</v>
       </c>
       <c r="H7">
-        <v>56.88544400668248</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.758089594198895</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.28967692399616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.40319508225645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0993909233306</v>
+        <v>23.77527792948804</v>
       </c>
       <c r="C8">
-        <v>15.03711062085815</v>
+        <v>17.22385810717887</v>
       </c>
       <c r="D8">
-        <v>7.123987962237094</v>
+        <v>12.00536863282639</v>
       </c>
       <c r="E8">
-        <v>11.38113517419617</v>
+        <v>12.99087314010433</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.72062329549108</v>
+        <v>2.091542163911647</v>
       </c>
       <c r="H8">
-        <v>62.29519461973739</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.844937520169853</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.1017518569602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.32458851957683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.18132260045135</v>
+        <v>28.3050031072417</v>
       </c>
       <c r="C9">
-        <v>18.00405809393432</v>
+        <v>20.66289696431399</v>
       </c>
       <c r="D9">
-        <v>8.434185869020748</v>
+        <v>13.3870070698147</v>
       </c>
       <c r="E9">
-        <v>13.10221281021534</v>
+        <v>14.46112644643187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.20167701069605</v>
+        <v>2.040389446971002</v>
       </c>
       <c r="H9">
-        <v>72.42375573834381</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.063816054048023</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.43312452075471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.75509993582426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.08604150786359</v>
+        <v>31.58140289027431</v>
       </c>
       <c r="C10">
-        <v>20.14484153482438</v>
+        <v>23.18094543372243</v>
       </c>
       <c r="D10">
-        <v>9.355019206225178</v>
+        <v>14.45515759859362</v>
       </c>
       <c r="E10">
-        <v>14.34835327949128</v>
+        <v>15.60358190522408</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.67022012634388</v>
+        <v>2.001090312531161</v>
       </c>
       <c r="H10">
-        <v>79.6789551817852</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.263210082275671</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.7908845278238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.66318537960511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.40512788542958</v>
+        <v>33.08325416227287</v>
       </c>
       <c r="C11">
-        <v>21.12631596008725</v>
+        <v>24.34488497349771</v>
       </c>
       <c r="D11">
-        <v>9.76977645716474</v>
+        <v>14.95951826463795</v>
       </c>
       <c r="E11">
-        <v>14.91688410983061</v>
+        <v>16.1445042615422</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.05593888766546</v>
+        <v>1.982406176741198</v>
       </c>
       <c r="H11">
-        <v>83.0559388876879</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.365106005094814</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.85790797374621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.8432794812978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.90638200396409</v>
+        <v>33.65635243926421</v>
       </c>
       <c r="C12">
-        <v>21.50091622097866</v>
+        <v>24.79076531313133</v>
       </c>
       <c r="D12">
-        <v>9.926796986036337</v>
+        <v>15.15406299436381</v>
       </c>
       <c r="E12">
-        <v>15.13310743974937</v>
+        <v>16.35338742243708</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.34086753117694</v>
+        <v>1.975163666102579</v>
       </c>
       <c r="H12">
-        <v>84.34086753117688</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.405631875837327</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.26275333820875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>84.05815550005214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.79831047831045</v>
+        <v>33.53267643666462</v>
       </c>
       <c r="C13">
-        <v>21.42007324231828</v>
+        <v>24.69446037041661</v>
       </c>
       <c r="D13">
-        <v>9.892970908495704</v>
+        <v>15.11198792642585</v>
       </c>
       <c r="E13">
-        <v>15.08648466401102</v>
+        <v>16.30820042697103</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.06392154182825</v>
+        <v>1.97673191276513</v>
       </c>
       <c r="H13">
-        <v>84.06392154182825</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.396811123543224</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.17549728034208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>83.79593211899821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.44631726648519</v>
+        <v>33.13029635337602</v>
       </c>
       <c r="C14">
-        <v>21.15706311662901</v>
+        <v>24.38144790848942</v>
       </c>
       <c r="D14">
-        <v>9.782691644514468</v>
+        <v>14.97544588654618</v>
       </c>
       <c r="E14">
-        <v>14.93464938256668</v>
+        <v>16.16160094016259</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.16156295037344</v>
+        <v>1.981814037940809</v>
       </c>
       <c r="H14">
-        <v>83.16156295037341</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.368398913888572</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.89118831571204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.94297776107798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.23101063208071</v>
+        <v>32.88449499558358</v>
       </c>
       <c r="C15">
-        <v>20.99640849361415</v>
+        <v>24.1904736833432</v>
       </c>
       <c r="D15">
-        <v>9.715156577997053</v>
+        <v>14.89230565892862</v>
       </c>
       <c r="E15">
-        <v>14.84179213245368</v>
+        <v>16.07236797928448</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.60936941466083</v>
+        <v>1.984903396216175</v>
       </c>
       <c r="H15">
-        <v>82.60936941466082</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.351259979857243</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.71719829023506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>82.42209304272751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.99995390959759</v>
+        <v>31.48369640424362</v>
       </c>
       <c r="C16">
-        <v>20.08099858085873</v>
+        <v>23.10544304895772</v>
       </c>
       <c r="D16">
-        <v>9.327874630577181</v>
+        <v>14.42263704974228</v>
       </c>
       <c r="E16">
-        <v>14.3112859462705</v>
+        <v>15.5687349420447</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.44907438928746</v>
+        <v>2.00229111889052</v>
       </c>
       <c r="H16">
-        <v>79.46377404769413</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.256802039844136</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.72116582535359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.45652127106368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.2454516861007</v>
+        <v>30.62894812339395</v>
       </c>
       <c r="C17">
-        <v>19.52252632578185</v>
+        <v>22.4460498649439</v>
       </c>
       <c r="D17">
-        <v>9.08957945997569</v>
+        <v>14.13977544006284</v>
       </c>
       <c r="E17">
-        <v>13.98668631910317</v>
+        <v>15.26580214803936</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.51012920250052</v>
+        <v>2.012719702106789</v>
       </c>
       <c r="H17">
-        <v>77.5779834798515</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.201925394236405</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.10970619800086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.6500401860614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.81111400123049</v>
+        <v>30.13818500156355</v>
       </c>
       <c r="C18">
-        <v>19.20188928142998</v>
+        <v>22.068335745708</v>
       </c>
       <c r="D18">
-        <v>8.952088475122581</v>
+        <v>13.97874756864314</v>
       </c>
       <c r="E18">
-        <v>13.8000879017262</v>
+        <v>15.09348220299742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.39345466318036</v>
+        <v>2.018645843863917</v>
       </c>
       <c r="H18">
-        <v>76.49265104559898</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.171390378984054</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.75737355805883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.61413448520453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.66393768068577</v>
+        <v>29.97210045496332</v>
       </c>
       <c r="C19">
-        <v>19.0933791938204</v>
+        <v>21.94065240486381</v>
       </c>
       <c r="D19">
-        <v>8.905448056290838</v>
+        <v>13.92449044335149</v>
       </c>
       <c r="E19">
-        <v>13.73690897983242</v>
+        <v>15.03544273162989</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.01500345452513</v>
+        <v>2.020641257158296</v>
       </c>
       <c r="H19">
-        <v>76.12494834616477</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.161219962418024</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.63792914378865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.26380198664229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.32579468192504</v>
+        <v>30.71983099593318</v>
       </c>
       <c r="C20">
-        <v>19.58190482288468</v>
+        <v>22.51606756728961</v>
       </c>
       <c r="D20">
-        <v>9.114987347376244</v>
+        <v>14.16970860446852</v>
       </c>
       <c r="E20">
-        <v>14.02122557015217</v>
+        <v>15.29784522175653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.71665430588222</v>
+        <v>2.011617343814108</v>
       </c>
       <c r="H20">
-        <v>77.77877167923415</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.207658587632783</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.1748530254248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.8419866148291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.54963918710147</v>
+        <v>33.2483395865929</v>
       </c>
       <c r="C21">
-        <v>21.23421836061641</v>
+        <v>24.47322422710367</v>
       </c>
       <c r="D21">
-        <v>9.815079151993832</v>
+        <v>15.0154461434511</v>
       </c>
       <c r="E21">
-        <v>14.97921501037147</v>
+        <v>16.20454096710476</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.42648748812618</v>
+        <v>1.980326327787336</v>
       </c>
       <c r="H21">
-        <v>83.42648748812616</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.376688418407002</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.97466041899938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>83.193170783352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.01469199506533</v>
+        <v>34.9284604282911</v>
       </c>
       <c r="C22">
-        <v>22.33253308267386</v>
+        <v>25.78405434866405</v>
       </c>
       <c r="D22">
-        <v>10.27279253375525</v>
+        <v>15.58961533276662</v>
       </c>
       <c r="E22">
-        <v>15.61127246294035</v>
+        <v>16.82150113912583</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.17795305094036</v>
+        <v>1.958863119218606</v>
       </c>
       <c r="H22">
-        <v>87.17795305101393</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.498713288342526</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.15664298477311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>86.75653726451432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.23083685900013</v>
+        <v>34.02804069575384</v>
       </c>
       <c r="C23">
-        <v>21.74388673464834</v>
+        <v>25.08047233815843</v>
       </c>
       <c r="D23">
-        <v>10.02825737159022</v>
+        <v>15.2808085424511</v>
       </c>
       <c r="E23">
-        <v>15.27308839928579</v>
+        <v>16.48954324028707</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.172015337953</v>
+        <v>1.97043297506915</v>
       </c>
       <c r="H23">
-        <v>85.1720153379536</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.432387646799818</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.52461727518635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>84.84637023170471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.28947351865239</v>
+        <v>30.67874103900702</v>
       </c>
       <c r="C24">
-        <v>19.55505857686785</v>
+        <v>22.48440843963408</v>
       </c>
       <c r="D24">
-        <v>9.103502013273996</v>
+        <v>14.15617092157318</v>
       </c>
       <c r="E24">
-        <v>14.00561036696599</v>
+        <v>15.28335288586425</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.62329069839575</v>
+        <v>2.012115932517884</v>
       </c>
       <c r="H24">
-        <v>77.68799927637245</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.205063474912931</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.14540273784954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.75519970280827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.0986425309687</v>
+        <v>27.09461756119673</v>
       </c>
       <c r="C25">
-        <v>17.21273127929046</v>
+        <v>19.73944028273114</v>
       </c>
       <c r="D25">
-        <v>8.088455372958938</v>
+        <v>13.00563292343749</v>
       </c>
       <c r="E25">
-        <v>12.64127177751229</v>
+        <v>14.05436012591019</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.41736950435188</v>
+        <v>2.05441115906019</v>
       </c>
       <c r="H25">
-        <v>69.72616170257557</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.998597269157951</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.55155333561996</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.21826938837015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.4129326909983</v>
+        <v>12.26075711441838</v>
       </c>
       <c r="C2">
-        <v>17.70528584930862</v>
+        <v>7.318031121684164</v>
       </c>
       <c r="D2">
-        <v>12.19174953768094</v>
+        <v>6.958467954230739</v>
       </c>
       <c r="E2">
-        <v>13.18862429265383</v>
+        <v>6.888354530088639</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.084555697401729</v>
+        <v>50.3005384559556</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>15.31951115063462</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.74731441631294</v>
       </c>
       <c r="J2">
-        <v>5.871486376762689</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.88245355781108</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.572972483396317</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.590839821158632</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.64029923080025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.54754007331703</v>
+        <v>11.40986925731709</v>
       </c>
       <c r="C3">
-        <v>16.29921782647528</v>
+        <v>6.93803981768412</v>
       </c>
       <c r="D3">
-        <v>11.65527110791172</v>
+        <v>6.471187950395311</v>
       </c>
       <c r="E3">
-        <v>12.61999935502353</v>
+        <v>6.885631775314439</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.104805235370116</v>
+        <v>48.83605301826341</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15.13128770220117</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.38785524534086</v>
       </c>
       <c r="J3">
-        <v>5.797963227215289</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.17533559361994</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.491723600907523</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.323609451875074</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>60.80529273307674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44868875786739</v>
+        <v>10.93579429976483</v>
       </c>
       <c r="C4">
-        <v>15.4180022442264</v>
+        <v>6.695129529987693</v>
       </c>
       <c r="D4">
-        <v>11.33231342294009</v>
+        <v>6.196683306614607</v>
       </c>
       <c r="E4">
-        <v>12.27862256609517</v>
+        <v>6.886076620969766</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.11726032907255</v>
+        <v>47.94903680421074</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>15.0225981005794</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.17848214314893</v>
       </c>
       <c r="J4">
-        <v>5.758295392814775</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.718228034468931</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.44463183547125</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.161572696727175</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>58.41641029283796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03199767658598</v>
+        <v>10.7383304030774</v>
       </c>
       <c r="C5">
-        <v>15.05393935853121</v>
+        <v>6.593748798684175</v>
       </c>
       <c r="D5">
-        <v>11.20224453108577</v>
+        <v>6.08583767297231</v>
       </c>
       <c r="E5">
-        <v>12.14136068124136</v>
+        <v>6.886779693304355</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.122355080785874</v>
+        <v>47.59092472344917</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.98000815263995</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>25.09597439415079</v>
       </c>
       <c r="J5">
-        <v>5.743411410025404</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.526151861738727</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.426143755483022</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.096134660220313</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>57.43370761010362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96265803911789</v>
+        <v>10.70528875085741</v>
       </c>
       <c r="C6">
-        <v>14.99317670099896</v>
+        <v>6.576770880079834</v>
       </c>
       <c r="D6">
-        <v>11.18073821916569</v>
+        <v>6.067298542834843</v>
       </c>
       <c r="E6">
-        <v>12.11867838662452</v>
+        <v>6.886927651702488</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.12320258296208</v>
+        <v>47.53167181587222</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.97303805699731</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25.08244281786224</v>
       </c>
       <c r="J6">
-        <v>5.741014708831709</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.493906541760413</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.42311619373477</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.085306931225649</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>57.26996289312893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44307906563168</v>
+        <v>10.93314830943554</v>
       </c>
       <c r="C7">
-        <v>15.41311295322107</v>
+        <v>6.693771928264187</v>
       </c>
       <c r="D7">
-        <v>11.33055310754368</v>
+        <v>6.195197407121431</v>
       </c>
       <c r="E7">
-        <v>12.2767639989671</v>
+        <v>6.886084003758277</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.117328944278759</v>
+        <v>47.94419320438361</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.02201686509064</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.17735807465624</v>
       </c>
       <c r="J7">
-        <v>5.758089594198895</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.715661156154981</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.444379657271006</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.160687667325634</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>58.40319508225645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.77527792948804</v>
+        <v>11.97011637155694</v>
       </c>
       <c r="C8">
-        <v>17.22385810717887</v>
+        <v>7.189009733389195</v>
       </c>
       <c r="D8">
-        <v>12.00536863282639</v>
+        <v>6.793774707500849</v>
       </c>
       <c r="E8">
-        <v>12.99087314010433</v>
+        <v>6.886970052321417</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.091542163911647</v>
+        <v>49.79322416316376</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>15.25316719211114</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.62099857538707</v>
       </c>
       <c r="J8">
-        <v>5.844937520169853</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.64337631636917</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.544377507209087</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.498321090145529</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>63.32458851957683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.3050031072417</v>
+        <v>13.95921131715052</v>
       </c>
       <c r="C9">
-        <v>20.66289696431399</v>
+        <v>8.083757484819927</v>
       </c>
       <c r="D9">
-        <v>13.3870070698147</v>
+        <v>7.922227714802629</v>
       </c>
       <c r="E9">
-        <v>14.46112644643187</v>
+        <v>6.905986893407964</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.040389446971002</v>
+        <v>53.50425605488093</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15.76226763268777</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>26.58251777621156</v>
       </c>
       <c r="J9">
-        <v>6.063816054048023</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.28259018915178</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.762660913215712</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.17338097181664</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.75509993582426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58140289027431</v>
+        <v>15.28704977423777</v>
       </c>
       <c r="C10">
-        <v>23.18094543372243</v>
+        <v>8.69493071262665</v>
       </c>
       <c r="D10">
-        <v>14.45515759859362</v>
+        <v>8.677440626208293</v>
       </c>
       <c r="E10">
-        <v>15.60358190522408</v>
+        <v>6.931188830015644</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.001090312531161</v>
+        <v>56.26955939148803</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>16.17203627445047</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>27.3470058609762</v>
       </c>
       <c r="J10">
-        <v>6.263210082275671</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.38037668142306</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.936571611300901</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.67334846803681</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>79.66318537960511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.08325416227287</v>
+        <v>15.86319813026258</v>
       </c>
       <c r="C11">
-        <v>24.34488497349771</v>
+        <v>8.963217840364164</v>
       </c>
       <c r="D11">
-        <v>14.95951826463795</v>
+        <v>9.005650591855712</v>
       </c>
       <c r="E11">
-        <v>16.1445042615422</v>
+        <v>6.94525219689689</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.982406176741198</v>
+        <v>57.53407245432732</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>16.36659983456941</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>27.70793202975313</v>
       </c>
       <c r="J11">
-        <v>6.365106005094814</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.857485783893</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.01863558208872</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.90099645030228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>82.8432794812978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.65635243926421</v>
+        <v>16.07745535864796</v>
       </c>
       <c r="C12">
-        <v>24.79076531313133</v>
+        <v>9.063445093357233</v>
       </c>
       <c r="D12">
-        <v>15.15406299436381</v>
+        <v>9.127789166029988</v>
       </c>
       <c r="E12">
-        <v>16.35338742243708</v>
+        <v>6.950965255644586</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.975163666102579</v>
+        <v>58.01375748117133</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16.44148380539946</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>27.84654647256637</v>
       </c>
       <c r="J12">
-        <v>6.405631875837327</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.03502768568861</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.050136739897964</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.98718712275811</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>84.05815550005214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.53267643666462</v>
+        <v>16.03148391070658</v>
       </c>
       <c r="C13">
-        <v>24.69446037041661</v>
+        <v>9.041919547545199</v>
       </c>
       <c r="D13">
-        <v>15.11198792642585</v>
+        <v>9.101578971456306</v>
       </c>
       <c r="E13">
-        <v>16.30820042697103</v>
+        <v>6.949717380053662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.97673191276513</v>
+        <v>57.91041232772384</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16.4253019355268</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>27.81660626328975</v>
       </c>
       <c r="J13">
-        <v>6.396811123543224</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.99692875001558</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.043333455466751</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.96862567949906</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>83.79593211899821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.13029635337602</v>
+        <v>15.88090315831725</v>
       </c>
       <c r="C14">
-        <v>24.38144790848942</v>
+        <v>8.971490777161709</v>
       </c>
       <c r="D14">
-        <v>14.97544588654618</v>
+        <v>9.015741694074137</v>
       </c>
       <c r="E14">
-        <v>16.16160094016259</v>
+        <v>6.945714364112549</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.981814037940809</v>
+        <v>57.57351995126394</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>16.37273618483494</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>27.71929675002484</v>
       </c>
       <c r="J14">
-        <v>6.368398913888572</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.87215451673816</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.021218666878131</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.90808792433865</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.94297776107798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.88449499558358</v>
+        <v>15.78816078998693</v>
       </c>
       <c r="C15">
-        <v>24.1904736833432</v>
+        <v>8.928174199670629</v>
       </c>
       <c r="D15">
-        <v>14.89230565892862</v>
+        <v>8.962886029516158</v>
       </c>
       <c r="E15">
-        <v>16.07236797928448</v>
+        <v>6.943313298356829</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.984903396216175</v>
+        <v>57.36727114639062</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>16.34069640718096</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>27.65994600084968</v>
       </c>
       <c r="J15">
-        <v>6.351259979857243</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.7953215612605</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.007728160758648</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.87100372854159</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>82.42209304272751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.48369640424362</v>
+        <v>15.24884367552557</v>
       </c>
       <c r="C16">
-        <v>23.10544304895772</v>
+        <v>8.677204182129969</v>
       </c>
       <c r="D16">
-        <v>14.42263704974228</v>
+        <v>8.65568755978574</v>
       </c>
       <c r="E16">
-        <v>15.5687349420447</v>
+        <v>6.930323218620485</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.00229111889052</v>
+        <v>56.18704252219923</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16.15948804810434</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>27.32368712612718</v>
       </c>
       <c r="J16">
-        <v>6.256802039844136</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.34875438369136</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.931267972181071</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.65847130149848</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>79.45652127106368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.62894812339395</v>
+        <v>14.9109104482669</v>
       </c>
       <c r="C17">
-        <v>22.4460498649439</v>
+        <v>8.520768677047611</v>
       </c>
       <c r="D17">
-        <v>14.13977544006284</v>
+        <v>8.463342658738773</v>
       </c>
       <c r="E17">
-        <v>15.26580214803936</v>
+        <v>6.923029478873927</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.012719702106789</v>
+        <v>55.46460100970268</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16.05043486908531</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>27.1208044499918</v>
       </c>
       <c r="J17">
-        <v>6.201925394236405</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.06914445603594</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.885118243243654</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.52810830948657</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.6500401860614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.13818500156355</v>
+        <v>14.71390889246432</v>
       </c>
       <c r="C18">
-        <v>22.068335745708</v>
+        <v>8.429871924625678</v>
       </c>
       <c r="D18">
-        <v>13.97874756864314</v>
+        <v>8.351263348501444</v>
       </c>
       <c r="E18">
-        <v>15.09348220299742</v>
+        <v>6.919078060404329</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.018645843863917</v>
+        <v>55.04969227880105</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15.98847598352559</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>27.00534683466915</v>
       </c>
       <c r="J18">
-        <v>6.171390378984054</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.90621824683598</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.858851792674573</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.45314884090238</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.61413448520453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.97210045496332</v>
+        <v>14.64675289350515</v>
       </c>
       <c r="C19">
-        <v>21.94065240486381</v>
+        <v>8.39893710985641</v>
       </c>
       <c r="D19">
-        <v>13.92449044335149</v>
+        <v>8.313064872512072</v>
       </c>
       <c r="E19">
-        <v>15.03544273162989</v>
+        <v>6.917781632184584</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.020641257158296</v>
+        <v>54.90932191420339</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>15.96762829710864</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>26.96646567906263</v>
       </c>
       <c r="J19">
-        <v>6.161219962418024</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.85069105775369</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.850006103491299</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.42777414075351</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>76.26380198664229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.71983099593318</v>
+        <v>14.94715569359488</v>
       </c>
       <c r="C20">
-        <v>22.51606756728961</v>
+        <v>8.537516424092916</v>
       </c>
       <c r="D20">
-        <v>14.16970860446852</v>
+        <v>8.483967512775322</v>
       </c>
       <c r="E20">
-        <v>15.29784522175653</v>
+        <v>6.923780585070792</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.011617343814108</v>
+        <v>55.54144284049796</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>16.06196429506252</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>27.14227350571475</v>
       </c>
       <c r="J20">
-        <v>6.207658587632783</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.09912643829799</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.890002222128124</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.54198376547848</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.8419866148291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.2483395865929</v>
+        <v>15.92523792197433</v>
       </c>
       <c r="C21">
-        <v>24.47322422710367</v>
+        <v>8.992214212911593</v>
       </c>
       <c r="D21">
-        <v>15.0154461434511</v>
+        <v>9.041011977491737</v>
       </c>
       <c r="E21">
-        <v>16.20454096710476</v>
+        <v>6.946879514171433</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.980326327787336</v>
+        <v>57.67245110685716</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>16.38814297152738</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>27.74782585392315</v>
       </c>
       <c r="J21">
-        <v>6.376688418407002</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.90888801911955</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.027702758838979</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.92587003673151</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>83.193170783352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.9284604282911</v>
+        <v>16.54168452515876</v>
       </c>
       <c r="C22">
-        <v>25.78405434866405</v>
+        <v>9.281437804113841</v>
       </c>
       <c r="D22">
-        <v>15.58961533276662</v>
+        <v>9.3925860598612</v>
       </c>
       <c r="E22">
-        <v>16.82150113912583</v>
+        <v>6.964242054858619</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.958863119218606</v>
+        <v>59.07008649862152</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>16.60837387602433</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>28.15492297040104</v>
       </c>
       <c r="J22">
-        <v>6.498713288342526</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.4199162377117</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.120178642092506</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.20447191592081</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>86.75653726451432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.02804069575384</v>
+        <v>16.21472771011655</v>
       </c>
       <c r="C23">
-        <v>25.08047233815843</v>
+        <v>9.127787674547532</v>
       </c>
       <c r="D23">
-        <v>15.2808085424511</v>
+        <v>9.206066496809511</v>
       </c>
       <c r="E23">
-        <v>16.48954324028707</v>
+        <v>6.954763207748672</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.97043297506915</v>
+        <v>58.32371276594007</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>16.49017463690084</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>27.93659253908459</v>
       </c>
       <c r="J23">
-        <v>6.432387646799818</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.148809257582</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.070594835743563</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.04283124848709</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>84.84637023170471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.67874103900702</v>
+        <v>14.9307776949757</v>
       </c>
       <c r="C24">
-        <v>22.48440843963408</v>
+        <v>8.529947759914796</v>
       </c>
       <c r="D24">
-        <v>14.15617092157318</v>
+        <v>8.474647685528401</v>
       </c>
       <c r="E24">
-        <v>15.28335288586425</v>
+        <v>6.923440257688871</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.012115932517884</v>
+        <v>55.50670129308379</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>16.05674954774239</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>27.13256366638445</v>
       </c>
       <c r="J24">
-        <v>6.205063474912931</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.08557836350329</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.88779334790319</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.5357107058163</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.75519970280827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.09461756119673</v>
+        <v>13.44490662437539</v>
       </c>
       <c r="C25">
-        <v>19.73944028273114</v>
+        <v>7.849881469491265</v>
       </c>
       <c r="D25">
-        <v>13.00563292343749</v>
+        <v>7.630142513443629</v>
       </c>
       <c r="E25">
-        <v>14.05436012591019</v>
+        <v>6.898922169787776</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.05441115906019</v>
+        <v>52.49269938247744</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>15.6183919491841</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>26.31237117144478</v>
       </c>
       <c r="J25">
-        <v>5.998597269157951</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.85810774020903</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.701232476556997</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.989800940701572</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.21826938837015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.26075711441838</v>
+        <v>13.11113637047131</v>
       </c>
       <c r="C2">
-        <v>7.318031121684164</v>
+        <v>5.705597563789397</v>
       </c>
       <c r="D2">
-        <v>6.958467954230739</v>
+        <v>6.039425842009615</v>
       </c>
       <c r="E2">
-        <v>6.888354530088639</v>
+        <v>11.13424970147505</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.3005384559556</v>
+        <v>55.29294700333538</v>
       </c>
       <c r="H2">
-        <v>15.31951115063462</v>
+        <v>20.72956375566558</v>
       </c>
       <c r="I2">
-        <v>25.74731441631294</v>
+        <v>33.10481550870235</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.88245355781108</v>
+        <v>11.21969019655359</v>
       </c>
       <c r="L2">
-        <v>6.572972483396317</v>
+        <v>10.42753119365155</v>
       </c>
       <c r="M2">
-        <v>9.590839821158632</v>
+        <v>14.8707300276895</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.40986925731709</v>
+        <v>12.9873261089986</v>
       </c>
       <c r="C3">
-        <v>6.93803981768412</v>
+        <v>5.544432999783423</v>
       </c>
       <c r="D3">
-        <v>6.471187950395311</v>
+        <v>5.930137760864997</v>
       </c>
       <c r="E3">
-        <v>6.885631775314439</v>
+        <v>11.1488267138031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.83605301826341</v>
+        <v>55.01382656196402</v>
       </c>
       <c r="H3">
-        <v>15.13128770220117</v>
+        <v>20.7233453029252</v>
       </c>
       <c r="I3">
-        <v>25.38785524534086</v>
+        <v>33.0742167876713</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.17533559361994</v>
+        <v>11.1307217502253</v>
       </c>
       <c r="L3">
-        <v>6.491723600907523</v>
+        <v>10.43644797159606</v>
       </c>
       <c r="M3">
-        <v>9.323609451875074</v>
+        <v>14.86966469510935</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93579429976483</v>
+        <v>12.91466058696049</v>
       </c>
       <c r="C4">
-        <v>6.695129529987693</v>
+        <v>5.441671711245212</v>
       </c>
       <c r="D4">
-        <v>6.196683306614607</v>
+        <v>5.863844652023885</v>
       </c>
       <c r="E4">
-        <v>6.886076620969766</v>
+        <v>11.1587426640961</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.94903680421074</v>
+        <v>54.8523241640772</v>
       </c>
       <c r="H4">
-        <v>15.0225981005794</v>
+        <v>20.72236886339234</v>
       </c>
       <c r="I4">
-        <v>25.17848214314893</v>
+        <v>33.06008439908312</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.718228034468931</v>
+        <v>11.07900631622095</v>
       </c>
       <c r="L4">
-        <v>6.44463183547125</v>
+        <v>10.44337994173419</v>
       </c>
       <c r="M4">
-        <v>9.161572696727175</v>
+        <v>14.87177433414062</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.7383304030774</v>
+        <v>12.88592716955062</v>
       </c>
       <c r="C5">
-        <v>6.593748798684175</v>
+        <v>5.398866678726747</v>
       </c>
       <c r="D5">
-        <v>6.08583767297231</v>
+        <v>5.837073109117473</v>
       </c>
       <c r="E5">
-        <v>6.886779693304355</v>
+        <v>11.16302664164285</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.59092472344917</v>
+        <v>54.78903489120108</v>
       </c>
       <c r="H5">
-        <v>14.98000815263995</v>
+        <v>20.72268613536702</v>
       </c>
       <c r="I5">
-        <v>25.09597439415079</v>
+        <v>33.05549801994846</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.526151861738727</v>
+        <v>11.0586868137718</v>
       </c>
       <c r="L5">
-        <v>6.426143755483022</v>
+        <v>10.4465714649012</v>
       </c>
       <c r="M5">
-        <v>9.096134660220313</v>
+        <v>14.87333054304102</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.70528875085741</v>
+        <v>12.88121004218576</v>
       </c>
       <c r="C6">
-        <v>6.576770880079834</v>
+        <v>5.391703695215847</v>
       </c>
       <c r="D6">
-        <v>6.067298542834843</v>
+        <v>5.832643576690373</v>
       </c>
       <c r="E6">
-        <v>6.886927651702488</v>
+        <v>11.16375268812781</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.53167181587222</v>
+        <v>54.7786793176143</v>
       </c>
       <c r="H6">
-        <v>14.97303805699731</v>
+        <v>20.72278202559843</v>
       </c>
       <c r="I6">
-        <v>25.08244281786224</v>
+        <v>33.0548073308535</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.493906541760413</v>
+        <v>11.0553590117491</v>
       </c>
       <c r="L6">
-        <v>6.42311619373477</v>
+        <v>10.44712356961486</v>
       </c>
       <c r="M6">
-        <v>9.085306931225649</v>
+        <v>14.87363105719145</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93314830943554</v>
+        <v>12.91426947684265</v>
       </c>
       <c r="C7">
-        <v>6.693771928264187</v>
+        <v>5.441098150142754</v>
       </c>
       <c r="D7">
-        <v>6.195197407121431</v>
+        <v>5.863482563535138</v>
       </c>
       <c r="E7">
-        <v>6.886084003758277</v>
+        <v>11.15879945437247</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.94419320438361</v>
+        <v>54.85146035190687</v>
       </c>
       <c r="H7">
-        <v>15.02201686509064</v>
+        <v>20.72237024595512</v>
       </c>
       <c r="I7">
-        <v>25.17735807465624</v>
+        <v>33.06001779521512</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.715661156154981</v>
+        <v>11.0787291944534</v>
       </c>
       <c r="L7">
-        <v>6.444379657271006</v>
+        <v>10.4434214986689</v>
       </c>
       <c r="M7">
-        <v>9.160687667325634</v>
+        <v>14.87179249975639</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.97011637155694</v>
+        <v>13.0677718252259</v>
       </c>
       <c r="C8">
-        <v>7.189009733389195</v>
+        <v>5.650833870542392</v>
       </c>
       <c r="D8">
-        <v>6.793774707500849</v>
+        <v>6.001598960925833</v>
       </c>
       <c r="E8">
-        <v>6.886970052321417</v>
+        <v>11.13907564826676</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.79322416316376</v>
+        <v>55.19468114436609</v>
       </c>
       <c r="H8">
-        <v>15.25316719211114</v>
+        <v>20.72683027132177</v>
       </c>
       <c r="I8">
-        <v>25.62099857538707</v>
+        <v>33.09330024992488</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.64337631636917</v>
+        <v>11.18842371319091</v>
       </c>
       <c r="L8">
-        <v>6.544377507209087</v>
+        <v>10.43030349375463</v>
       </c>
       <c r="M8">
-        <v>9.498321090145529</v>
+        <v>14.86979009704127</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.95921131715052</v>
+        <v>13.39379162478419</v>
       </c>
       <c r="C9">
-        <v>8.083757484819927</v>
+        <v>6.030829732240652</v>
       </c>
       <c r="D9">
-        <v>7.922227714802629</v>
+        <v>6.277137670428607</v>
       </c>
       <c r="E9">
-        <v>6.905986893407964</v>
+        <v>11.10804415744834</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.50425605488093</v>
+        <v>55.94419449198028</v>
       </c>
       <c r="H9">
-        <v>15.76226763268777</v>
+        <v>20.75808952705563</v>
       </c>
       <c r="I9">
-        <v>26.58251777621156</v>
+        <v>33.1953951759151</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.28259018915178</v>
+        <v>11.42556623340211</v>
       </c>
       <c r="L9">
-        <v>6.762660913215712</v>
+        <v>10.41612487266826</v>
       </c>
       <c r="M9">
-        <v>10.17338097181664</v>
+        <v>14.8877133871977</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.28704977423777</v>
+        <v>13.64630249940913</v>
       </c>
       <c r="C10">
-        <v>8.69493071262665</v>
+        <v>6.28963542389709</v>
       </c>
       <c r="D10">
-        <v>8.677440626208293</v>
+        <v>6.48015277394247</v>
       </c>
       <c r="E10">
-        <v>6.931188830015644</v>
+        <v>11.0898871479247</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.26955939148803</v>
+        <v>56.53867952798345</v>
       </c>
       <c r="H10">
-        <v>16.17203627445047</v>
+        <v>20.79472221165235</v>
       </c>
       <c r="I10">
-        <v>27.3470058609762</v>
+        <v>33.29267966414233</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.38037668142306</v>
+        <v>11.61170961732543</v>
       </c>
       <c r="L10">
-        <v>6.936571611300901</v>
+        <v>10.41272352209749</v>
       </c>
       <c r="M10">
-        <v>10.67334846803681</v>
+        <v>14.91407903890372</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86319813026258</v>
+        <v>13.7634960256498</v>
       </c>
       <c r="C11">
-        <v>8.963217840364164</v>
+        <v>6.402718952735855</v>
       </c>
       <c r="D11">
-        <v>9.005650591855712</v>
+        <v>6.572170986159237</v>
       </c>
       <c r="E11">
-        <v>6.94525219689689</v>
+        <v>11.08263064390129</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.53407245432732</v>
+        <v>56.8179820922637</v>
       </c>
       <c r="H11">
-        <v>16.36659983456941</v>
+        <v>20.81433691814372</v>
       </c>
       <c r="I11">
-        <v>27.70793202975313</v>
+        <v>33.34172394766041</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.857485783893</v>
+        <v>11.69863624963088</v>
       </c>
       <c r="L11">
-        <v>7.01863558208872</v>
+        <v>10.41269321171981</v>
       </c>
       <c r="M11">
-        <v>10.90099645030228</v>
+        <v>14.92890643075877</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.07745535864796</v>
+        <v>13.80816598451558</v>
       </c>
       <c r="C12">
-        <v>9.063445093357233</v>
+        <v>6.444855797001588</v>
       </c>
       <c r="D12">
-        <v>9.127789166029988</v>
+        <v>6.606931064382914</v>
       </c>
       <c r="E12">
-        <v>6.950965255644586</v>
+        <v>11.08002668308346</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.01375748117133</v>
+        <v>56.9249620807871</v>
       </c>
       <c r="H12">
-        <v>16.44148380539946</v>
+        <v>20.82218663565276</v>
       </c>
       <c r="I12">
-        <v>27.84654647256637</v>
+        <v>33.36097898055721</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.03502768568861</v>
+        <v>11.73184691422614</v>
       </c>
       <c r="L12">
-        <v>7.050136739897964</v>
+        <v>10.4128991793091</v>
       </c>
       <c r="M12">
-        <v>10.98718712275811</v>
+        <v>14.93492529059152</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03148391070658</v>
+        <v>13.79853323895842</v>
       </c>
       <c r="C13">
-        <v>9.041919547545199</v>
+        <v>6.435811608612585</v>
       </c>
       <c r="D13">
-        <v>9.101578971456306</v>
+        <v>6.599449222872439</v>
       </c>
       <c r="E13">
-        <v>6.949717380053662</v>
+        <v>11.08058109728981</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.91041232772384</v>
+        <v>56.90186902292701</v>
       </c>
       <c r="H13">
-        <v>16.4253019355268</v>
+        <v>20.82047732572106</v>
       </c>
       <c r="I13">
-        <v>27.81660626328975</v>
+        <v>33.35680178325682</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.99692875001558</v>
+        <v>11.72468183384624</v>
       </c>
       <c r="L13">
-        <v>7.043333455466751</v>
+        <v>10.41284516149727</v>
       </c>
       <c r="M13">
-        <v>10.96862567949906</v>
+        <v>14.9336111090356</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.88090315831725</v>
+        <v>13.76716545834167</v>
       </c>
       <c r="C14">
-        <v>8.971490777161709</v>
+        <v>6.406199403856803</v>
       </c>
       <c r="D14">
-        <v>9.015741694074137</v>
+        <v>6.575032633301298</v>
       </c>
       <c r="E14">
-        <v>6.945714364112549</v>
+        <v>11.08241353209442</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.57351995126394</v>
+        <v>56.82675942472465</v>
       </c>
       <c r="H14">
-        <v>16.37273618483494</v>
+        <v>20.81497427418732</v>
       </c>
       <c r="I14">
-        <v>27.71929675002484</v>
+        <v>33.3432944164314</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.87215451673816</v>
+        <v>11.70136280310008</v>
       </c>
       <c r="L14">
-        <v>7.021218666878131</v>
+        <v>10.41270580313822</v>
       </c>
       <c r="M14">
-        <v>10.90808792433865</v>
+        <v>14.92939352893859</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.78816078998693</v>
+        <v>13.74798844648999</v>
       </c>
       <c r="C15">
-        <v>8.928174199670629</v>
+        <v>6.387971338425793</v>
       </c>
       <c r="D15">
-        <v>8.962886029516158</v>
+        <v>6.560064595783902</v>
       </c>
       <c r="E15">
-        <v>6.943313298356829</v>
+        <v>11.08355468366004</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.36727114639062</v>
+        <v>56.78090889478834</v>
       </c>
       <c r="H15">
-        <v>16.34069640718096</v>
+        <v>20.81165838978853</v>
       </c>
       <c r="I15">
-        <v>27.65994600084968</v>
+        <v>33.33510953657582</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.7953215612605</v>
+        <v>11.68711654141248</v>
       </c>
       <c r="L15">
-        <v>7.007728160758648</v>
+        <v>10.41264873791515</v>
       </c>
       <c r="M15">
-        <v>10.87100372854159</v>
+        <v>14.92686265160673</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24884367552557</v>
+        <v>13.63868673746869</v>
       </c>
       <c r="C16">
-        <v>8.677204182129969</v>
+        <v>6.282150113437726</v>
       </c>
       <c r="D16">
-        <v>8.65568755978574</v>
+        <v>6.474129225591089</v>
       </c>
       <c r="E16">
-        <v>6.930323218620485</v>
+        <v>11.09038153577322</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.18704252219923</v>
+        <v>56.52059973475531</v>
       </c>
       <c r="H16">
-        <v>16.15948804810434</v>
+        <v>20.79349953124381</v>
       </c>
       <c r="I16">
-        <v>27.32368712612718</v>
+        <v>33.28957040584947</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.34875438369136</v>
+        <v>11.60607146095989</v>
       </c>
       <c r="L16">
-        <v>6.931267972181071</v>
+        <v>10.41275597100145</v>
       </c>
       <c r="M16">
-        <v>10.65847130149848</v>
+        <v>14.91316676780922</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9109104482669</v>
+        <v>13.57219861516537</v>
       </c>
       <c r="C17">
-        <v>8.520768677047611</v>
+        <v>6.216028923228968</v>
       </c>
       <c r="D17">
-        <v>8.463342658738773</v>
+        <v>6.421298063806791</v>
       </c>
       <c r="E17">
-        <v>6.923029478873927</v>
+        <v>11.09482629516888</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.46460100970268</v>
+        <v>56.36313719619915</v>
       </c>
       <c r="H17">
-        <v>16.05043486908531</v>
+        <v>20.78311383691362</v>
       </c>
       <c r="I17">
-        <v>27.1208044499918</v>
+        <v>33.26285641114756</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.06914445603594</v>
+        <v>11.55690777396395</v>
       </c>
       <c r="L17">
-        <v>6.885118243243654</v>
+        <v>10.41320982227445</v>
       </c>
       <c r="M17">
-        <v>10.52810830948657</v>
+        <v>14.90548819911706</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71390889246432</v>
+        <v>13.53417784342304</v>
       </c>
       <c r="C18">
-        <v>8.429871924625678</v>
+        <v>6.177561113897704</v>
       </c>
       <c r="D18">
-        <v>8.351263348501444</v>
+        <v>6.390881624519635</v>
       </c>
       <c r="E18">
-        <v>6.919078060404329</v>
+        <v>11.09747725110651</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.04969227880105</v>
+        <v>56.27340745578439</v>
       </c>
       <c r="H18">
-        <v>15.98847598352559</v>
+        <v>20.77741810804603</v>
       </c>
       <c r="I18">
-        <v>27.00534683466915</v>
+        <v>33.24794237604916</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.90621824683598</v>
+        <v>11.52884364084207</v>
       </c>
       <c r="L18">
-        <v>6.858851792674573</v>
+        <v>10.41361369772154</v>
       </c>
       <c r="M18">
-        <v>10.45314884090238</v>
+        <v>14.90133861913286</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.64675289350515</v>
+        <v>13.52134400448938</v>
       </c>
       <c r="C19">
-        <v>8.39893710985641</v>
+        <v>6.164462129239382</v>
       </c>
       <c r="D19">
-        <v>8.313064872512072</v>
+        <v>6.380579258595081</v>
       </c>
       <c r="E19">
-        <v>6.917781632184584</v>
+        <v>11.09839105098328</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.90932191420339</v>
+        <v>56.24317235074092</v>
       </c>
       <c r="H19">
-        <v>15.96762829710864</v>
+        <v>20.77553741489574</v>
       </c>
       <c r="I19">
-        <v>26.96646567906263</v>
+        <v>33.24297038672429</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.85069105775369</v>
+        <v>11.51937918649097</v>
       </c>
       <c r="L19">
-        <v>6.850006103491299</v>
+        <v>10.41377499438992</v>
       </c>
       <c r="M19">
-        <v>10.42777414075351</v>
+        <v>14.89997958657863</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94715569359488</v>
+        <v>13.57925378268254</v>
       </c>
       <c r="C20">
-        <v>8.537516424092916</v>
+        <v>6.223112957625876</v>
       </c>
       <c r="D20">
-        <v>8.483967512775322</v>
+        <v>6.426925343456268</v>
       </c>
       <c r="E20">
-        <v>6.923780585070792</v>
+        <v>11.09434337038596</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.54144284049796</v>
+        <v>56.37981300063585</v>
       </c>
       <c r="H20">
-        <v>16.06196429506252</v>
+        <v>20.78419067052447</v>
       </c>
       <c r="I20">
-        <v>27.14227350571475</v>
+        <v>33.26565350813913</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.09912643829799</v>
+        <v>11.56211944984355</v>
       </c>
       <c r="L20">
-        <v>6.890002222128124</v>
+        <v>10.4131467312039</v>
       </c>
       <c r="M20">
-        <v>10.54198376547848</v>
+        <v>14.906277993293</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92523792197433</v>
+        <v>13.77637137288445</v>
       </c>
       <c r="C21">
-        <v>8.992214212911593</v>
+        <v>6.414915954532878</v>
       </c>
       <c r="D21">
-        <v>9.041011977491737</v>
+        <v>6.58220697787627</v>
       </c>
       <c r="E21">
-        <v>6.946879514171433</v>
+        <v>11.08187139839299</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.67245110685716</v>
+        <v>56.84878848056405</v>
       </c>
       <c r="H21">
-        <v>16.38814297152738</v>
+        <v>20.81657921838388</v>
       </c>
       <c r="I21">
-        <v>27.74782585392315</v>
+        <v>33.34724336834108</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.90888801911955</v>
+        <v>11.70820444462964</v>
       </c>
       <c r="L21">
-        <v>7.027702758838979</v>
+        <v>10.41274084060397</v>
       </c>
       <c r="M21">
-        <v>10.92587003673151</v>
+        <v>14.9306213974826</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.54168452515876</v>
+        <v>13.90687717442152</v>
       </c>
       <c r="C22">
-        <v>9.281437804113841</v>
+        <v>6.536268517174443</v>
       </c>
       <c r="D22">
-        <v>9.3925860598612</v>
+        <v>6.68317978259913</v>
       </c>
       <c r="E22">
-        <v>6.964242054858619</v>
+        <v>11.07455895376246</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.07008649862152</v>
+        <v>57.16233826087428</v>
       </c>
       <c r="H22">
-        <v>16.60837387602433</v>
+        <v>20.8402058307565</v>
       </c>
       <c r="I22">
-        <v>28.15492297040104</v>
+        <v>33.40454521079928</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.4199162377117</v>
+        <v>11.80537568218477</v>
       </c>
       <c r="L22">
-        <v>7.120178642092506</v>
+        <v>10.41374262559337</v>
       </c>
       <c r="M22">
-        <v>11.20447191592081</v>
+        <v>14.94888451102053</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.21472771011655</v>
+        <v>13.83708444550565</v>
       </c>
       <c r="C23">
-        <v>9.127787674547532</v>
+        <v>6.471871655382712</v>
       </c>
       <c r="D23">
-        <v>9.206066496809511</v>
+        <v>6.629347428785137</v>
       </c>
       <c r="E23">
-        <v>6.954763207748672</v>
+        <v>11.07838511595617</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.32371276594007</v>
+        <v>56.99436679128237</v>
       </c>
       <c r="H23">
-        <v>16.49017463690084</v>
+        <v>20.82737168335392</v>
       </c>
       <c r="I23">
-        <v>27.93659253908459</v>
+        <v>33.37360016075837</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.148809257582</v>
+        <v>11.75336834459269</v>
       </c>
       <c r="L23">
-        <v>7.070594835743563</v>
+        <v>10.4130922690395</v>
       </c>
       <c r="M23">
-        <v>11.04283124848709</v>
+        <v>14.93892302779276</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.9307776949757</v>
+        <v>13.5760635022951</v>
       </c>
       <c r="C24">
-        <v>8.529947759914796</v>
+        <v>6.219911678108818</v>
       </c>
       <c r="D24">
-        <v>8.474647685528401</v>
+        <v>6.42438138176397</v>
       </c>
       <c r="E24">
-        <v>6.923440257688871</v>
+        <v>11.09456140286565</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.50670129308379</v>
+        <v>56.37227138030328</v>
       </c>
       <c r="H24">
-        <v>16.05674954774239</v>
+        <v>20.78370297673963</v>
       </c>
       <c r="I24">
-        <v>27.13256366638445</v>
+        <v>33.26438755641945</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.08557836350329</v>
+        <v>11.55976262364439</v>
       </c>
       <c r="L24">
-        <v>6.88779334790319</v>
+        <v>10.41317480934773</v>
       </c>
       <c r="M24">
-        <v>10.5357107058163</v>
+        <v>14.90592010184135</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44490662437539</v>
+        <v>13.30314688562075</v>
       </c>
       <c r="C25">
-        <v>7.849881469491265</v>
+        <v>5.931524215518912</v>
       </c>
       <c r="D25">
-        <v>7.630142513443629</v>
+        <v>6.202334049541051</v>
       </c>
       <c r="E25">
-        <v>6.898922169787776</v>
+        <v>11.11562237551427</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.49269938247744</v>
+        <v>55.73352155635383</v>
       </c>
       <c r="H25">
-        <v>15.6183919491841</v>
+        <v>20.74722773388851</v>
       </c>
       <c r="I25">
-        <v>26.31237117144478</v>
+        <v>33.16384878480143</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.85810774020903</v>
+        <v>11.35920679298945</v>
       </c>
       <c r="L25">
-        <v>6.701232476556997</v>
+        <v>10.41872657393794</v>
       </c>
       <c r="M25">
-        <v>9.989800940701572</v>
+        <v>14.88053687119638</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.11113637047131</v>
+        <v>12.26075711441839</v>
       </c>
       <c r="C2">
-        <v>5.705597563789397</v>
+        <v>7.318031121684254</v>
       </c>
       <c r="D2">
-        <v>6.039425842009615</v>
+        <v>6.958467954230732</v>
       </c>
       <c r="E2">
-        <v>11.13424970147505</v>
+        <v>6.888354530088645</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.29294700333538</v>
+        <v>50.30053845595567</v>
       </c>
       <c r="H2">
-        <v>20.72956375566558</v>
+        <v>15.31951115063465</v>
       </c>
       <c r="I2">
-        <v>33.10481550870235</v>
+        <v>25.74731441631301</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.21969019655359</v>
+        <v>10.88245355781104</v>
       </c>
       <c r="L2">
-        <v>10.42753119365155</v>
+        <v>6.572972483396317</v>
       </c>
       <c r="M2">
-        <v>14.8707300276895</v>
+        <v>9.590839821158655</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.9873261089986</v>
+        <v>11.40986925731709</v>
       </c>
       <c r="C3">
-        <v>5.544432999783423</v>
+        <v>6.93803981768433</v>
       </c>
       <c r="D3">
-        <v>5.930137760864997</v>
+        <v>6.47118795039525</v>
       </c>
       <c r="E3">
-        <v>11.1488267138031</v>
+        <v>6.885631775314446</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>55.01382656196402</v>
+        <v>48.83605301826324</v>
       </c>
       <c r="H3">
-        <v>20.7233453029252</v>
+        <v>15.13128770220113</v>
       </c>
       <c r="I3">
-        <v>33.0742167876713</v>
+        <v>25.38785524534078</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.1307217502253</v>
+        <v>10.17533559362004</v>
       </c>
       <c r="L3">
-        <v>10.43644797159606</v>
+        <v>6.491723600907529</v>
       </c>
       <c r="M3">
-        <v>14.86966469510935</v>
+        <v>9.323609451875022</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.91466058696049</v>
+        <v>10.93579429976483</v>
       </c>
       <c r="C4">
-        <v>5.441671711245212</v>
+        <v>6.695129529987587</v>
       </c>
       <c r="D4">
-        <v>5.863844652023885</v>
+        <v>6.196683306614624</v>
       </c>
       <c r="E4">
-        <v>11.1587426640961</v>
+        <v>6.886076620969823</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>54.8523241640772</v>
+        <v>47.94903680421046</v>
       </c>
       <c r="H4">
-        <v>20.72236886339234</v>
+        <v>15.02259810057942</v>
       </c>
       <c r="I4">
-        <v>33.06008439908312</v>
+        <v>25.17848214314888</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.07900631622095</v>
+        <v>9.718228034468932</v>
       </c>
       <c r="L4">
-        <v>10.44337994173419</v>
+        <v>6.444631835471315</v>
       </c>
       <c r="M4">
-        <v>14.87177433414062</v>
+        <v>9.161572696727189</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.88592716955062</v>
+        <v>10.73833040307736</v>
       </c>
       <c r="C5">
-        <v>5.398866678726747</v>
+        <v>6.593748798683759</v>
       </c>
       <c r="D5">
-        <v>5.837073109117473</v>
+        <v>6.085837672972294</v>
       </c>
       <c r="E5">
-        <v>11.16302664164285</v>
+        <v>6.886779693304357</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.78903489120108</v>
+        <v>47.59092472344928</v>
       </c>
       <c r="H5">
-        <v>20.72268613536702</v>
+        <v>14.98000815263996</v>
       </c>
       <c r="I5">
-        <v>33.05549801994846</v>
+        <v>25.09597439415072</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.0586868137718</v>
+        <v>9.526151861738704</v>
       </c>
       <c r="L5">
-        <v>10.4465714649012</v>
+        <v>6.426143755483156</v>
       </c>
       <c r="M5">
-        <v>14.87333054304102</v>
+        <v>9.096134660220313</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.88121004218576</v>
+        <v>10.70528875085744</v>
       </c>
       <c r="C6">
-        <v>5.391703695215847</v>
+        <v>6.576770880080026</v>
       </c>
       <c r="D6">
-        <v>5.832643576690373</v>
+        <v>6.06729854283483</v>
       </c>
       <c r="E6">
-        <v>11.16375268812781</v>
+        <v>6.886927651702557</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.7786793176143</v>
+        <v>47.53167181587241</v>
       </c>
       <c r="H6">
-        <v>20.72278202559843</v>
+        <v>14.97303805699748</v>
       </c>
       <c r="I6">
-        <v>33.0548073308535</v>
+        <v>25.08244281786241</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.0553590117491</v>
+        <v>9.493906541760374</v>
       </c>
       <c r="L6">
-        <v>10.44712356961486</v>
+        <v>6.423116193734694</v>
       </c>
       <c r="M6">
-        <v>14.87363105719145</v>
+        <v>9.085306931225675</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.91426947684265</v>
+        <v>10.93314830943554</v>
       </c>
       <c r="C7">
-        <v>5.441098150142754</v>
+        <v>6.693771928263873</v>
       </c>
       <c r="D7">
-        <v>5.863482563535138</v>
+        <v>6.195197407121444</v>
       </c>
       <c r="E7">
-        <v>11.15879945437247</v>
+        <v>6.886084003758403</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>54.85146035190687</v>
+        <v>47.94419320438364</v>
       </c>
       <c r="H7">
-        <v>20.72237024595512</v>
+        <v>15.02201686509063</v>
       </c>
       <c r="I7">
-        <v>33.06001779521512</v>
+        <v>25.17735807465612</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.0787291944534</v>
+        <v>9.715661156154964</v>
       </c>
       <c r="L7">
-        <v>10.4434214986689</v>
+        <v>6.44437965727121</v>
       </c>
       <c r="M7">
-        <v>14.87179249975639</v>
+        <v>9.160687667325702</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.0677718252259</v>
+        <v>11.97011637155691</v>
       </c>
       <c r="C8">
-        <v>5.650833870542392</v>
+        <v>7.189009733389377</v>
       </c>
       <c r="D8">
-        <v>6.001598960925833</v>
+        <v>6.79377470750075</v>
       </c>
       <c r="E8">
-        <v>11.13907564826676</v>
+        <v>6.886970052321482</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55.19468114436609</v>
+        <v>49.7932241631637</v>
       </c>
       <c r="H8">
-        <v>20.72683027132177</v>
+        <v>15.25316719211108</v>
       </c>
       <c r="I8">
-        <v>33.09330024992488</v>
+        <v>25.62099857538707</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.18842371319091</v>
+        <v>10.64337631636917</v>
       </c>
       <c r="L8">
-        <v>10.43030349375463</v>
+        <v>6.544377507209085</v>
       </c>
       <c r="M8">
-        <v>14.86979009704127</v>
+        <v>9.498321090145547</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.39379162478419</v>
+        <v>13.95921131715062</v>
       </c>
       <c r="C9">
-        <v>6.030829732240652</v>
+        <v>8.083757484819913</v>
       </c>
       <c r="D9">
-        <v>6.277137670428607</v>
+        <v>7.922227714802591</v>
       </c>
       <c r="E9">
-        <v>11.10804415744834</v>
+        <v>6.905986893407863</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.94419449198028</v>
+        <v>53.5042560548809</v>
       </c>
       <c r="H9">
-        <v>20.75808952705563</v>
+        <v>15.76226763268778</v>
       </c>
       <c r="I9">
-        <v>33.1953951759151</v>
+        <v>26.58251777621156</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.42556623340211</v>
+        <v>12.28259018915189</v>
       </c>
       <c r="L9">
-        <v>10.41612487266826</v>
+        <v>6.762660913215678</v>
       </c>
       <c r="M9">
-        <v>14.8877133871977</v>
+        <v>10.1733809718166</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.64630249940913</v>
+        <v>15.28704977423771</v>
       </c>
       <c r="C10">
-        <v>6.28963542389709</v>
+        <v>8.694930712626721</v>
       </c>
       <c r="D10">
-        <v>6.48015277394247</v>
+        <v>8.677440626208291</v>
       </c>
       <c r="E10">
-        <v>11.0898871479247</v>
+        <v>6.931188830015699</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.53867952798345</v>
+        <v>56.26955939148822</v>
       </c>
       <c r="H10">
-        <v>20.79472221165235</v>
+        <v>16.17203627445055</v>
       </c>
       <c r="I10">
-        <v>33.29267966414233</v>
+        <v>27.34700586097636</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.61170961732543</v>
+        <v>13.38037668142301</v>
       </c>
       <c r="L10">
-        <v>10.41272352209749</v>
+        <v>6.936571611300911</v>
       </c>
       <c r="M10">
-        <v>14.91407903890372</v>
+        <v>10.67334846803685</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.7634960256498</v>
+        <v>15.86319813026256</v>
       </c>
       <c r="C11">
-        <v>6.402718952735855</v>
+        <v>8.963217840364035</v>
       </c>
       <c r="D11">
-        <v>6.572170986159237</v>
+        <v>9.005650591855858</v>
       </c>
       <c r="E11">
-        <v>11.08263064390129</v>
+        <v>6.945252196896832</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.8179820922637</v>
+        <v>57.53407245432746</v>
       </c>
       <c r="H11">
-        <v>20.81433691814372</v>
+        <v>16.36659983456939</v>
       </c>
       <c r="I11">
-        <v>33.34172394766041</v>
+        <v>27.70793202975314</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.69863624963088</v>
+        <v>13.85748578389298</v>
       </c>
       <c r="L11">
-        <v>10.41269321171981</v>
+        <v>7.018635582088721</v>
       </c>
       <c r="M11">
-        <v>14.92890643075877</v>
+        <v>10.90099645030227</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.80816598451558</v>
+        <v>16.077455358648</v>
       </c>
       <c r="C12">
-        <v>6.444855797001588</v>
+        <v>9.06344509335722</v>
       </c>
       <c r="D12">
-        <v>6.606931064382914</v>
+        <v>9.127789166029885</v>
       </c>
       <c r="E12">
-        <v>11.08002668308346</v>
+        <v>6.950965255644641</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.9249620807871</v>
+        <v>58.01375748117147</v>
       </c>
       <c r="H12">
-        <v>20.82218663565276</v>
+        <v>16.44148380539946</v>
       </c>
       <c r="I12">
-        <v>33.36097898055721</v>
+        <v>27.8465464725664</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.73184691422614</v>
+        <v>14.03502768568863</v>
       </c>
       <c r="L12">
-        <v>10.4128991793091</v>
+        <v>7.05013673989798</v>
       </c>
       <c r="M12">
-        <v>14.93492529059152</v>
+        <v>10.98718712275811</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.79853323895842</v>
+        <v>16.03148391070655</v>
       </c>
       <c r="C13">
-        <v>6.435811608612585</v>
+        <v>9.041919547545223</v>
       </c>
       <c r="D13">
-        <v>6.599449222872439</v>
+        <v>9.101578971456254</v>
       </c>
       <c r="E13">
-        <v>11.08058109728981</v>
+        <v>6.949717380053569</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.90186902292701</v>
+        <v>57.91041232772388</v>
       </c>
       <c r="H13">
-        <v>20.82047732572106</v>
+        <v>16.42530193552681</v>
       </c>
       <c r="I13">
-        <v>33.35680178325682</v>
+        <v>27.81660626328979</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72468183384624</v>
+        <v>13.99692875001558</v>
       </c>
       <c r="L13">
-        <v>10.41284516149727</v>
+        <v>7.043333455466752</v>
       </c>
       <c r="M13">
-        <v>14.9336111090356</v>
+        <v>10.96862567949906</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.76716545834167</v>
+        <v>15.88090315831727</v>
       </c>
       <c r="C14">
-        <v>6.406199403856803</v>
+        <v>8.971490777161485</v>
       </c>
       <c r="D14">
-        <v>6.575032633301298</v>
+        <v>9.015741694074144</v>
       </c>
       <c r="E14">
-        <v>11.08241353209442</v>
+        <v>6.945714364112507</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.82675942472465</v>
+        <v>57.573519951264</v>
       </c>
       <c r="H14">
-        <v>20.81497427418732</v>
+        <v>16.37273618483499</v>
       </c>
       <c r="I14">
-        <v>33.3432944164314</v>
+        <v>27.71929675002488</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.70136280310008</v>
+        <v>13.87215451673812</v>
       </c>
       <c r="L14">
-        <v>10.41270580313822</v>
+        <v>7.021218666878121</v>
       </c>
       <c r="M14">
-        <v>14.92939352893859</v>
+        <v>10.90808792433868</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.74798844648999</v>
+        <v>15.78816078998702</v>
       </c>
       <c r="C15">
-        <v>6.387971338425793</v>
+        <v>8.928174199670686</v>
       </c>
       <c r="D15">
-        <v>6.560064595783902</v>
+        <v>8.962886029516172</v>
       </c>
       <c r="E15">
-        <v>11.08355468366004</v>
+        <v>6.94331329835694</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.78090889478834</v>
+        <v>57.36727114639055</v>
       </c>
       <c r="H15">
-        <v>20.81165838978853</v>
+        <v>16.34069640718098</v>
       </c>
       <c r="I15">
-        <v>33.33510953657582</v>
+        <v>27.65994600084961</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.68711654141248</v>
+        <v>13.79532156126062</v>
       </c>
       <c r="L15">
-        <v>10.41264873791515</v>
+        <v>7.007728160758727</v>
       </c>
       <c r="M15">
-        <v>14.92686265160673</v>
+        <v>10.87100372854155</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.63868673746869</v>
+        <v>15.24884367552552</v>
       </c>
       <c r="C16">
-        <v>6.282150113437726</v>
+        <v>8.677204182130239</v>
       </c>
       <c r="D16">
-        <v>6.474129225591089</v>
+        <v>8.655687559785887</v>
       </c>
       <c r="E16">
-        <v>11.09038153577322</v>
+        <v>6.930323218620553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.52059973475531</v>
+        <v>56.18704252219931</v>
       </c>
       <c r="H16">
-        <v>20.79349953124381</v>
+        <v>16.15948804810429</v>
       </c>
       <c r="I16">
-        <v>33.28957040584947</v>
+        <v>27.32368712612722</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.60607146095989</v>
+        <v>13.34875438369135</v>
       </c>
       <c r="L16">
-        <v>10.41275597100145</v>
+        <v>6.931267972181061</v>
       </c>
       <c r="M16">
-        <v>14.91316676780922</v>
+        <v>10.6584713014985</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.57219861516537</v>
+        <v>14.91091044826696</v>
       </c>
       <c r="C17">
-        <v>6.216028923228968</v>
+        <v>8.520768677047563</v>
       </c>
       <c r="D17">
-        <v>6.421298063806791</v>
+        <v>8.463342658738757</v>
       </c>
       <c r="E17">
-        <v>11.09482629516888</v>
+        <v>6.923029478873885</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.36313719619915</v>
+        <v>55.4646010097026</v>
       </c>
       <c r="H17">
-        <v>20.78311383691362</v>
+        <v>16.05043486908526</v>
       </c>
       <c r="I17">
-        <v>33.26285641114756</v>
+        <v>27.12080444999173</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.55690777396395</v>
+        <v>13.06914445603597</v>
       </c>
       <c r="L17">
-        <v>10.41320982227445</v>
+        <v>6.885118243243678</v>
       </c>
       <c r="M17">
-        <v>14.90548819911706</v>
+        <v>10.52810830948653</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.53417784342304</v>
+        <v>14.71390889246432</v>
       </c>
       <c r="C18">
-        <v>6.177561113897704</v>
+        <v>8.429871924625454</v>
       </c>
       <c r="D18">
-        <v>6.390881624519635</v>
+        <v>8.351263348501444</v>
       </c>
       <c r="E18">
-        <v>11.09747725110651</v>
+        <v>6.91907806040428</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>56.27340745578439</v>
+        <v>55.0496922788015</v>
       </c>
       <c r="H18">
-        <v>20.77741810804603</v>
+        <v>15.98847598352573</v>
       </c>
       <c r="I18">
-        <v>33.24794237604916</v>
+        <v>27.0053468346694</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.52884364084207</v>
+        <v>12.90621824683592</v>
       </c>
       <c r="L18">
-        <v>10.41361369772154</v>
+        <v>6.858851792674585</v>
       </c>
       <c r="M18">
-        <v>14.90133861913286</v>
+        <v>10.45314884090239</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.52134400448938</v>
+        <v>14.64675289350513</v>
       </c>
       <c r="C19">
-        <v>6.164462129239382</v>
+        <v>8.398937109856528</v>
       </c>
       <c r="D19">
-        <v>6.380579258595081</v>
+        <v>8.313064872512049</v>
       </c>
       <c r="E19">
-        <v>11.09839105098328</v>
+        <v>6.917781632184594</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>56.24317235074092</v>
+        <v>54.90932191420339</v>
       </c>
       <c r="H19">
-        <v>20.77553741489574</v>
+        <v>15.96762829710866</v>
       </c>
       <c r="I19">
-        <v>33.24297038672429</v>
+        <v>26.96646567906262</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.51937918649097</v>
+        <v>12.85069105775375</v>
       </c>
       <c r="L19">
-        <v>10.41377499438992</v>
+        <v>6.850006103491257</v>
       </c>
       <c r="M19">
-        <v>14.89997958657863</v>
+        <v>10.42777414075347</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.57925378268254</v>
+        <v>14.94715569359483</v>
       </c>
       <c r="C20">
-        <v>6.223112957625876</v>
+        <v>8.537516424092892</v>
       </c>
       <c r="D20">
-        <v>6.426925343456268</v>
+        <v>8.483967512775269</v>
       </c>
       <c r="E20">
-        <v>11.09434337038596</v>
+        <v>6.923780585070631</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.37981300063585</v>
+        <v>55.54144284049796</v>
       </c>
       <c r="H20">
-        <v>20.78419067052447</v>
+        <v>16.06196429506257</v>
       </c>
       <c r="I20">
-        <v>33.26565350813913</v>
+        <v>27.14227350571478</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.56211944984355</v>
+        <v>13.09912643829789</v>
       </c>
       <c r="L20">
-        <v>10.4131467312039</v>
+        <v>6.890002222128039</v>
       </c>
       <c r="M20">
-        <v>14.906277993293</v>
+        <v>10.54198376547847</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.77637137288445</v>
+        <v>15.92523792197437</v>
       </c>
       <c r="C21">
-        <v>6.414915954532878</v>
+        <v>8.992214212911579</v>
       </c>
       <c r="D21">
-        <v>6.58220697787627</v>
+        <v>9.041011977491685</v>
       </c>
       <c r="E21">
-        <v>11.08187139839299</v>
+        <v>6.94687951417148</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.84878848056405</v>
+        <v>57.67245110685734</v>
       </c>
       <c r="H21">
-        <v>20.81657921838388</v>
+        <v>16.38814297152748</v>
       </c>
       <c r="I21">
-        <v>33.34724336834108</v>
+        <v>27.74782585392326</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.70820444462964</v>
+        <v>13.90888801911963</v>
       </c>
       <c r="L21">
-        <v>10.41274084060397</v>
+        <v>7.027702758838996</v>
       </c>
       <c r="M21">
-        <v>14.9306213974826</v>
+        <v>10.92587003673148</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.90687717442152</v>
+        <v>16.54168452515878</v>
       </c>
       <c r="C22">
-        <v>6.536268517174443</v>
+        <v>9.281437804114013</v>
       </c>
       <c r="D22">
-        <v>6.68317978259913</v>
+        <v>9.392586059861255</v>
       </c>
       <c r="E22">
-        <v>11.07455895376246</v>
+        <v>6.964242054858626</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.16233826087428</v>
+        <v>59.07008649862174</v>
       </c>
       <c r="H22">
-        <v>20.8402058307565</v>
+        <v>16.60837387602435</v>
       </c>
       <c r="I22">
-        <v>33.40454521079928</v>
+        <v>28.1549229704011</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.80537568218477</v>
+        <v>14.41991623771175</v>
       </c>
       <c r="L22">
-        <v>10.41374262559337</v>
+        <v>7.120178642092531</v>
       </c>
       <c r="M22">
-        <v>14.94888451102053</v>
+        <v>11.20447191592083</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.83708444550565</v>
+        <v>16.21472771011645</v>
       </c>
       <c r="C23">
-        <v>6.471871655382712</v>
+        <v>9.127787674547882</v>
       </c>
       <c r="D23">
-        <v>6.629347428785137</v>
+        <v>9.206066496809473</v>
       </c>
       <c r="E23">
-        <v>11.07838511595617</v>
+        <v>6.954763207748665</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.99436679128237</v>
+        <v>58.32371276594009</v>
       </c>
       <c r="H23">
-        <v>20.82737168335392</v>
+        <v>16.49017463690093</v>
       </c>
       <c r="I23">
-        <v>33.37360016075837</v>
+        <v>27.93659253908473</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.75336834459269</v>
+        <v>14.14880925758197</v>
       </c>
       <c r="L23">
-        <v>10.4130922690395</v>
+        <v>7.07059483574351</v>
       </c>
       <c r="M23">
-        <v>14.93892302779276</v>
+        <v>11.04283124848709</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.5760635022951</v>
+        <v>14.93077769497576</v>
       </c>
       <c r="C24">
-        <v>6.219911678108818</v>
+        <v>8.529947759914913</v>
       </c>
       <c r="D24">
-        <v>6.42438138176397</v>
+        <v>8.474647685528417</v>
       </c>
       <c r="E24">
-        <v>11.09456140286565</v>
+        <v>6.923440257688932</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.37227138030328</v>
+        <v>55.50670129308381</v>
       </c>
       <c r="H24">
-        <v>20.78370297673963</v>
+        <v>16.05674954774228</v>
       </c>
       <c r="I24">
-        <v>33.26438755641945</v>
+        <v>27.13256366638436</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.55976262364439</v>
+        <v>13.08557836350335</v>
       </c>
       <c r="L24">
-        <v>10.41317480934773</v>
+        <v>6.887793347903182</v>
       </c>
       <c r="M24">
-        <v>14.90592010184135</v>
+        <v>10.53571070581628</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30314688562075</v>
+        <v>13.44490662437542</v>
       </c>
       <c r="C25">
-        <v>5.931524215518912</v>
+        <v>7.849881469491373</v>
       </c>
       <c r="D25">
-        <v>6.202334049541051</v>
+        <v>7.630142513443571</v>
       </c>
       <c r="E25">
-        <v>11.11562237551427</v>
+        <v>6.898922169787887</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>55.73352155635383</v>
+        <v>52.49269938247734</v>
       </c>
       <c r="H25">
-        <v>20.74722773388851</v>
+        <v>15.61839194918404</v>
       </c>
       <c r="I25">
-        <v>33.16384878480143</v>
+        <v>26.31237117144477</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.35920679298945</v>
+        <v>11.85810774020909</v>
       </c>
       <c r="L25">
-        <v>10.41872657393794</v>
+        <v>6.701232476556994</v>
       </c>
       <c r="M25">
-        <v>14.88053687119638</v>
+        <v>9.98980094070158</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.26075711441839</v>
+        <v>24.32440254018112</v>
       </c>
       <c r="C2">
-        <v>7.318031121684254</v>
+        <v>18.9581337471701</v>
       </c>
       <c r="D2">
-        <v>6.958467954230732</v>
+        <v>12.80174516896833</v>
       </c>
       <c r="E2">
-        <v>6.888354530088645</v>
+        <v>14.43069109436877</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.30053845595567</v>
+        <v>22.70056520120118</v>
       </c>
       <c r="H2">
-        <v>15.31951115063465</v>
+        <v>1.792808247977145</v>
       </c>
       <c r="I2">
-        <v>25.74731441631301</v>
+        <v>2.783402462184272</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.823846758518309</v>
       </c>
       <c r="K2">
-        <v>10.88245355781104</v>
+        <v>11.87760896392752</v>
       </c>
       <c r="L2">
-        <v>6.572972483396317</v>
+        <v>6.840272979298153</v>
       </c>
       <c r="M2">
-        <v>9.590839821158655</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.50337856821968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.40986925731709</v>
+        <v>22.73330771057907</v>
       </c>
       <c r="C3">
-        <v>6.93803981768433</v>
+        <v>17.76761357451896</v>
       </c>
       <c r="D3">
-        <v>6.47118795039525</v>
+        <v>12.24026030284582</v>
       </c>
       <c r="E3">
-        <v>6.885631775314446</v>
+        <v>13.77680128844331</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.83605301826324</v>
+        <v>22.17330231973341</v>
       </c>
       <c r="H3">
-        <v>15.13128770220113</v>
+        <v>1.578275906400692</v>
       </c>
       <c r="I3">
-        <v>25.38785524534078</v>
+        <v>2.621099680542596</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.840909119510304</v>
       </c>
       <c r="K3">
-        <v>10.17533559362004</v>
+        <v>12.16122553396586</v>
       </c>
       <c r="L3">
-        <v>6.491723600907529</v>
+        <v>6.632667536300242</v>
       </c>
       <c r="M3">
-        <v>9.323609451875022</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.41292326109158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93579429976483</v>
+        <v>21.6967939446826</v>
       </c>
       <c r="C4">
-        <v>6.695129529987587</v>
+        <v>16.99956731621434</v>
       </c>
       <c r="D4">
-        <v>6.196683306614624</v>
+        <v>11.88446595474568</v>
       </c>
       <c r="E4">
-        <v>6.886076620969823</v>
+        <v>13.35967713106773</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.94903680421046</v>
+        <v>21.86004961641675</v>
       </c>
       <c r="H4">
-        <v>15.02259810057942</v>
+        <v>1.740913283410733</v>
       </c>
       <c r="I4">
-        <v>25.17848214314888</v>
+        <v>2.519015153101476</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.855376443743081</v>
       </c>
       <c r="K4">
-        <v>9.718228034468932</v>
+        <v>12.34048719852009</v>
       </c>
       <c r="L4">
-        <v>6.444631835471315</v>
+        <v>6.501097592349954</v>
       </c>
       <c r="M4">
-        <v>9.161572696727189</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.3655619808679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73833040307736</v>
+        <v>21.25924245167739</v>
       </c>
       <c r="C5">
-        <v>6.593748798683759</v>
+        <v>16.69116433645858</v>
       </c>
       <c r="D5">
-        <v>6.085837672972294</v>
+        <v>11.73678538790091</v>
       </c>
       <c r="E5">
-        <v>6.886779693304357</v>
+        <v>13.18575246235095</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.59092472344928</v>
+        <v>21.71905891309877</v>
       </c>
       <c r="H5">
-        <v>14.98000815263996</v>
+        <v>1.808814030777973</v>
       </c>
       <c r="I5">
-        <v>25.09597439415072</v>
+        <v>2.477562318652197</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.859599614989143</v>
       </c>
       <c r="K5">
-        <v>9.526151861738704</v>
+        <v>12.41043991796167</v>
       </c>
       <c r="L5">
-        <v>6.426143755483156</v>
+        <v>6.446384056108275</v>
       </c>
       <c r="M5">
-        <v>9.096134660220313</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.34161877273744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.70528875085744</v>
+        <v>21.18550696246769</v>
       </c>
       <c r="C6">
-        <v>6.576770880080026</v>
+        <v>16.65635390353617</v>
       </c>
       <c r="D6">
-        <v>6.06729854283483</v>
+        <v>11.71201861690838</v>
       </c>
       <c r="E6">
-        <v>6.886927651702557</v>
+        <v>13.15646505027019</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.53167181587241</v>
+        <v>21.67618862088711</v>
       </c>
       <c r="H6">
-        <v>14.97303805699748</v>
+        <v>1.820401408250124</v>
       </c>
       <c r="I6">
-        <v>25.08244281786241</v>
+        <v>2.482501929557214</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.857132504415047</v>
       </c>
       <c r="K6">
-        <v>9.493906541760374</v>
+        <v>12.41681156149535</v>
       </c>
       <c r="L6">
-        <v>6.423116193734694</v>
+        <v>6.437121392643212</v>
       </c>
       <c r="M6">
-        <v>9.085306931225675</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.32965177369223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93314830943554</v>
+        <v>21.69049751581708</v>
       </c>
       <c r="C7">
-        <v>6.693771928263873</v>
+        <v>17.0407028665515</v>
       </c>
       <c r="D7">
-        <v>6.195197407121444</v>
+        <v>11.88224250159479</v>
       </c>
       <c r="E7">
-        <v>6.886084003758403</v>
+        <v>13.35686415029242</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.94419320438364</v>
+        <v>21.80496012359776</v>
       </c>
       <c r="H7">
-        <v>15.02201686509063</v>
+        <v>1.74242345288031</v>
       </c>
       <c r="I7">
-        <v>25.17735807465612</v>
+        <v>2.521207827026253</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.846633061835146</v>
       </c>
       <c r="K7">
-        <v>9.715661156154964</v>
+        <v>12.32686124545059</v>
       </c>
       <c r="L7">
-        <v>6.44437965727121</v>
+        <v>6.500050447560623</v>
       </c>
       <c r="M7">
-        <v>9.160687667325702</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.34315004569967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.97011637155691</v>
+        <v>23.78758109315312</v>
       </c>
       <c r="C8">
-        <v>7.189009733389377</v>
+        <v>18.61080130109716</v>
       </c>
       <c r="D8">
-        <v>6.79377470750075</v>
+        <v>12.61023917423767</v>
       </c>
       <c r="E8">
-        <v>6.886970052321482</v>
+        <v>14.20798137854856</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.7932241631637</v>
+        <v>22.44839336680178</v>
       </c>
       <c r="H8">
-        <v>15.25316719211108</v>
+        <v>1.707182431722013</v>
       </c>
       <c r="I8">
-        <v>25.62099857538707</v>
+        <v>2.730877086517983</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.817307115295066</v>
       </c>
       <c r="K8">
-        <v>10.64337631636917</v>
+        <v>11.95492142616075</v>
       </c>
       <c r="L8">
-        <v>6.544377507209085</v>
+        <v>6.769182804904617</v>
       </c>
       <c r="M8">
-        <v>9.498321090145547</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.4415971978718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.95921131715062</v>
+        <v>27.43020013580281</v>
       </c>
       <c r="C9">
-        <v>8.083757484819913</v>
+        <v>21.32256727458634</v>
       </c>
       <c r="D9">
-        <v>7.922227714802591</v>
+        <v>13.94472339364845</v>
       </c>
       <c r="E9">
-        <v>6.905986893407863</v>
+        <v>15.7487791377731</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.5042560548809</v>
+        <v>23.88135643725061</v>
       </c>
       <c r="H9">
-        <v>15.76226763268778</v>
+        <v>2.301066123553318</v>
       </c>
       <c r="I9">
-        <v>26.58251777621156</v>
+        <v>3.12004781770588</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.808847146845041</v>
       </c>
       <c r="K9">
-        <v>12.28259018915189</v>
+        <v>11.29364194180188</v>
       </c>
       <c r="L9">
-        <v>6.762660913215678</v>
+        <v>7.26377765224842</v>
       </c>
       <c r="M9">
-        <v>10.1733809718166</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.74136518018692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.28704977423771</v>
+        <v>29.82050942766019</v>
       </c>
       <c r="C10">
-        <v>8.694930712626721</v>
+        <v>23.12238267195847</v>
       </c>
       <c r="D10">
-        <v>8.677440626208291</v>
+        <v>14.72482212591929</v>
       </c>
       <c r="E10">
-        <v>6.931188830015699</v>
+        <v>16.54790603839233</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.26955939148822</v>
+        <v>24.71764131270599</v>
       </c>
       <c r="H10">
-        <v>16.17203627445055</v>
+        <v>2.696723621819345</v>
       </c>
       <c r="I10">
-        <v>27.34700586097636</v>
+        <v>3.391609652825561</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.780181203250805</v>
       </c>
       <c r="K10">
-        <v>13.38037668142301</v>
+        <v>10.78377922849425</v>
       </c>
       <c r="L10">
-        <v>6.936571611300911</v>
+        <v>7.503699835427439</v>
       </c>
       <c r="M10">
-        <v>10.67334846803685</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.89346807540784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86319813026256</v>
+        <v>30.82703191796706</v>
       </c>
       <c r="C11">
-        <v>8.963217840364035</v>
+        <v>23.69435895018811</v>
       </c>
       <c r="D11">
-        <v>9.005650591855858</v>
+        <v>13.89076041650516</v>
       </c>
       <c r="E11">
-        <v>6.945252196896832</v>
+        <v>14.78551729798312</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.53407245432746</v>
+        <v>22.99175157195485</v>
       </c>
       <c r="H11">
-        <v>16.36659983456939</v>
+        <v>3.401889356659467</v>
       </c>
       <c r="I11">
-        <v>27.70793202975314</v>
+        <v>3.474798312224449</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.404536524277859</v>
       </c>
       <c r="K11">
-        <v>13.85748578389298</v>
+        <v>10.18019146560019</v>
       </c>
       <c r="L11">
-        <v>7.018635582088721</v>
+        <v>6.791866328449014</v>
       </c>
       <c r="M11">
-        <v>10.90099645030227</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.05151383523018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.077455358648</v>
+        <v>31.19233586045443</v>
       </c>
       <c r="C12">
-        <v>9.06344509335722</v>
+        <v>23.75473686310087</v>
       </c>
       <c r="D12">
-        <v>9.127789166029885</v>
+        <v>13.01572305777373</v>
       </c>
       <c r="E12">
-        <v>6.950965255644641</v>
+        <v>13.16608181828407</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.01375748117147</v>
+        <v>21.40167846166256</v>
       </c>
       <c r="H12">
-        <v>16.44148380539946</v>
+        <v>4.512098035705915</v>
       </c>
       <c r="I12">
-        <v>27.8465464725664</v>
+        <v>3.487702549746152</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.105438336535249</v>
       </c>
       <c r="K12">
-        <v>14.03502768568863</v>
+        <v>9.841046965469056</v>
       </c>
       <c r="L12">
-        <v>7.05013673989798</v>
+        <v>6.234201441082242</v>
       </c>
       <c r="M12">
-        <v>10.98718712275811</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.33284698676818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03148391070655</v>
+        <v>31.09874227324325</v>
       </c>
       <c r="C13">
-        <v>9.041919547545223</v>
+        <v>23.48080119792685</v>
       </c>
       <c r="D13">
-        <v>9.101578971456254</v>
+        <v>12.03644186700081</v>
       </c>
       <c r="E13">
-        <v>6.949717380053569</v>
+        <v>11.54596186247946</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.91041232772388</v>
+        <v>19.71686681573366</v>
       </c>
       <c r="H13">
-        <v>16.42530193552681</v>
+        <v>5.73901265613088</v>
       </c>
       <c r="I13">
-        <v>27.81660626328979</v>
+        <v>3.450891621226049</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.834829411248156</v>
       </c>
       <c r="K13">
-        <v>13.99692875001558</v>
+        <v>9.669524531064971</v>
       </c>
       <c r="L13">
-        <v>7.043333455466752</v>
+        <v>5.780351240311856</v>
       </c>
       <c r="M13">
-        <v>10.96862567949906</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.63061759519897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.88090315831727</v>
+        <v>30.82443493606058</v>
       </c>
       <c r="C14">
-        <v>8.971490777161485</v>
+        <v>23.14442075861921</v>
       </c>
       <c r="D14">
-        <v>9.015741694074144</v>
+        <v>11.29598261170042</v>
       </c>
       <c r="E14">
-        <v>6.945714364112507</v>
+        <v>10.43020604940091</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.573519951264</v>
+        <v>18.47538250428115</v>
       </c>
       <c r="H14">
-        <v>16.37273618483499</v>
+        <v>6.639546903657894</v>
       </c>
       <c r="I14">
-        <v>27.71929675002488</v>
+        <v>3.403816579645901</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.658956092209696</v>
       </c>
       <c r="K14">
-        <v>13.87215451673812</v>
+        <v>9.632962935315321</v>
       </c>
       <c r="L14">
-        <v>7.021218666878121</v>
+        <v>5.541141670238329</v>
       </c>
       <c r="M14">
-        <v>10.90808792433868</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.14554079354754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.78816078998702</v>
+        <v>30.65815093712646</v>
       </c>
       <c r="C15">
-        <v>8.928174199670686</v>
+        <v>23.00360612562998</v>
       </c>
       <c r="D15">
-        <v>8.962886029516172</v>
+        <v>11.09280095619697</v>
       </c>
       <c r="E15">
-        <v>6.94331329835694</v>
+        <v>10.15421423714555</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.36727114639055</v>
+        <v>18.13872289645785</v>
       </c>
       <c r="H15">
-        <v>16.34069640718098</v>
+        <v>6.844177087810559</v>
       </c>
       <c r="I15">
-        <v>27.65994600084961</v>
+        <v>3.382580564799224</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.620150687232681</v>
       </c>
       <c r="K15">
-        <v>13.79532156126062</v>
+        <v>9.652448931211982</v>
       </c>
       <c r="L15">
-        <v>7.007728160758727</v>
+        <v>5.492168873704416</v>
       </c>
       <c r="M15">
-        <v>10.87100372854155</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.02599179697236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24884367552552</v>
+        <v>29.69877182961696</v>
       </c>
       <c r="C16">
-        <v>8.677204182130239</v>
+        <v>22.32661652416559</v>
       </c>
       <c r="D16">
-        <v>8.655687559785887</v>
+        <v>10.91142570984657</v>
       </c>
       <c r="E16">
-        <v>6.930323218620553</v>
+        <v>10.0662455214247</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.18704252219931</v>
+        <v>18.02604428385276</v>
       </c>
       <c r="H16">
-        <v>16.15948804810429</v>
+        <v>6.563865857098951</v>
       </c>
       <c r="I16">
-        <v>27.32368712612722</v>
+        <v>3.276176471633476</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.684410045682973</v>
       </c>
       <c r="K16">
-        <v>13.34875438369135</v>
+        <v>9.906319982625652</v>
       </c>
       <c r="L16">
-        <v>6.931267972181061</v>
+        <v>5.465519022888918</v>
       </c>
       <c r="M16">
-        <v>10.6584713014985</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.08598858702181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91091044826696</v>
+        <v>29.09871253945478</v>
       </c>
       <c r="C17">
-        <v>8.520768677047563</v>
+        <v>21.98566595822886</v>
       </c>
       <c r="D17">
-        <v>8.463342658738757</v>
+        <v>11.17797626188468</v>
       </c>
       <c r="E17">
-        <v>6.923029478873885</v>
+        <v>10.59159183092758</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.4646010097026</v>
+        <v>18.61393976683999</v>
       </c>
       <c r="H17">
-        <v>16.05043486908526</v>
+        <v>5.818952768395621</v>
       </c>
       <c r="I17">
-        <v>27.12080444999173</v>
+        <v>3.219543983316163</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.825514560432564</v>
       </c>
       <c r="K17">
-        <v>13.06914445603597</v>
+        <v>10.114141347831</v>
       </c>
       <c r="L17">
-        <v>6.885118243243678</v>
+        <v>5.557552401035028</v>
       </c>
       <c r="M17">
-        <v>10.52810830948653</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.38822355429425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71390889246432</v>
+        <v>28.75458164795325</v>
       </c>
       <c r="C18">
-        <v>8.429871924625454</v>
+        <v>21.87379041287528</v>
       </c>
       <c r="D18">
-        <v>8.351263348501444</v>
+        <v>11.86434102081761</v>
       </c>
       <c r="E18">
-        <v>6.91907806040428</v>
+        <v>11.77374320334137</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.0496922788015</v>
+        <v>19.90192912064968</v>
       </c>
       <c r="H18">
-        <v>15.98847598352573</v>
+        <v>4.634912253148928</v>
       </c>
       <c r="I18">
-        <v>27.0053468346694</v>
+        <v>3.197763976816513</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.056567933771856</v>
       </c>
       <c r="K18">
-        <v>12.90621824683592</v>
+        <v>10.33678234620828</v>
       </c>
       <c r="L18">
-        <v>6.858851792674585</v>
+        <v>5.845233691388318</v>
       </c>
       <c r="M18">
-        <v>10.45314884090239</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.95031501317087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.64675289350513</v>
+        <v>28.64711978341952</v>
       </c>
       <c r="C19">
-        <v>8.398937109856528</v>
+        <v>22.02415502912175</v>
       </c>
       <c r="D19">
-        <v>8.313064872512049</v>
+        <v>12.83348962950414</v>
       </c>
       <c r="E19">
-        <v>6.917781632184594</v>
+        <v>13.4564491100765</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.90932191420339</v>
+        <v>21.56633952970141</v>
       </c>
       <c r="H19">
-        <v>15.96762829710866</v>
+        <v>3.359751745726188</v>
       </c>
       <c r="I19">
-        <v>26.96646567906262</v>
+        <v>3.215595080508447</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.333971093913577</v>
       </c>
       <c r="K19">
-        <v>12.85069105775375</v>
+        <v>10.57482867436541</v>
       </c>
       <c r="L19">
-        <v>6.850006103491257</v>
+        <v>6.369607185878936</v>
       </c>
       <c r="M19">
-        <v>10.42777414075347</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.65226710727459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94715569359483</v>
+        <v>29.2106271217689</v>
       </c>
       <c r="C20">
-        <v>8.537516424092892</v>
+        <v>22.77005388014843</v>
       </c>
       <c r="D20">
-        <v>8.483967512775269</v>
+        <v>14.51688853388107</v>
       </c>
       <c r="E20">
-        <v>6.923780585070631</v>
+        <v>16.32988472502695</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.54144284049796</v>
+        <v>24.33764625670782</v>
       </c>
       <c r="H20">
-        <v>16.06196429506257</v>
+        <v>2.591065332804191</v>
       </c>
       <c r="I20">
-        <v>27.14227350571478</v>
+        <v>3.329414333118049</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.757637241653061</v>
       </c>
       <c r="K20">
-        <v>13.09912643829789</v>
+        <v>10.86763316919886</v>
       </c>
       <c r="L20">
-        <v>6.890002222128039</v>
+        <v>7.436441733674905</v>
       </c>
       <c r="M20">
-        <v>10.54198376547847</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.78078063642766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92523792197437</v>
+        <v>30.96026319257976</v>
       </c>
       <c r="C21">
-        <v>8.992214212911579</v>
+        <v>24.11266666009768</v>
       </c>
       <c r="D21">
-        <v>9.041011977491685</v>
+        <v>15.3071760868946</v>
       </c>
       <c r="E21">
-        <v>6.94687951417148</v>
+        <v>17.30333947703861</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.67245110685734</v>
+        <v>25.39606529892993</v>
       </c>
       <c r="H21">
-        <v>16.38814297152748</v>
+        <v>2.913806852922698</v>
       </c>
       <c r="I21">
-        <v>27.74782585392326</v>
+        <v>3.540775240138711</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.812984874733841</v>
       </c>
       <c r="K21">
-        <v>13.90888801911963</v>
+        <v>10.56309543418943</v>
       </c>
       <c r="L21">
-        <v>7.027702758838996</v>
+        <v>7.771464107028472</v>
       </c>
       <c r="M21">
-        <v>10.92587003673148</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.08706485071019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.54168452515878</v>
+        <v>32.05250525974384</v>
       </c>
       <c r="C22">
-        <v>9.281437804114013</v>
+        <v>24.90063234991852</v>
       </c>
       <c r="D22">
-        <v>9.392586059861255</v>
+        <v>15.74052190809691</v>
       </c>
       <c r="E22">
-        <v>6.964242054858626</v>
+        <v>17.79530718314653</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.07008649862174</v>
+        <v>26.02946438143375</v>
       </c>
       <c r="H22">
-        <v>16.60837387602435</v>
+        <v>3.112321426870415</v>
       </c>
       <c r="I22">
-        <v>28.1549229704011</v>
+        <v>3.671382125966714</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.844143206015717</v>
       </c>
       <c r="K22">
-        <v>14.41991623771175</v>
+        <v>10.36807085298489</v>
       </c>
       <c r="L22">
-        <v>7.120178642092531</v>
+        <v>7.934201069081198</v>
       </c>
       <c r="M22">
-        <v>11.20447191592083</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.27001348361252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.21472771011645</v>
+        <v>31.47452470135072</v>
       </c>
       <c r="C23">
-        <v>9.127787674547882</v>
+        <v>24.44401056854947</v>
       </c>
       <c r="D23">
-        <v>9.206066496809473</v>
+        <v>15.5106015888232</v>
       </c>
       <c r="E23">
-        <v>6.954763207748665</v>
+        <v>17.53457823417497</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.32371276594009</v>
+        <v>25.74379927283009</v>
       </c>
       <c r="H23">
-        <v>16.49017463690093</v>
+        <v>3.007218353942727</v>
       </c>
       <c r="I23">
-        <v>27.93659253908473</v>
+        <v>3.598568275157919</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.837073121178371</v>
       </c>
       <c r="K23">
-        <v>14.14880925758197</v>
+        <v>10.48965724887098</v>
       </c>
       <c r="L23">
-        <v>7.07059483574351</v>
+        <v>7.847977265659834</v>
       </c>
       <c r="M23">
-        <v>11.04283124848709</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.19559955752126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93077769497576</v>
+        <v>29.18370426355822</v>
       </c>
       <c r="C24">
-        <v>8.529947759914913</v>
+        <v>22.7085158414234</v>
       </c>
       <c r="D24">
-        <v>8.474647685528417</v>
+        <v>14.61386714358115</v>
       </c>
       <c r="E24">
-        <v>6.923440257688932</v>
+        <v>16.51409252079235</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.50670129308381</v>
+        <v>24.59450533661995</v>
       </c>
       <c r="H24">
-        <v>16.05674954774228</v>
+        <v>2.600502711220187</v>
       </c>
       <c r="I24">
-        <v>27.13256366638436</v>
+        <v>3.324300780279376</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.804792752080944</v>
       </c>
       <c r="K24">
-        <v>13.08557836350335</v>
+        <v>10.93416319794148</v>
       </c>
       <c r="L24">
-        <v>6.887793347903182</v>
+        <v>7.512589322361052</v>
       </c>
       <c r="M24">
-        <v>10.53571070581628</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.89533020194505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44490662437542</v>
+        <v>26.49413093370605</v>
       </c>
       <c r="C25">
-        <v>7.849881469491373</v>
+        <v>20.6891634017105</v>
       </c>
       <c r="D25">
-        <v>7.630142513443571</v>
+        <v>13.59411584677529</v>
       </c>
       <c r="E25">
-        <v>6.898922169787887</v>
+        <v>15.34569678507537</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.49269938247734</v>
+        <v>23.39689731179727</v>
       </c>
       <c r="H25">
-        <v>15.61839194918404</v>
+        <v>2.143930862212418</v>
       </c>
       <c r="I25">
-        <v>26.31237117144477</v>
+        <v>3.021249250319794</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.791647120632454</v>
       </c>
       <c r="K25">
-        <v>11.85810774020909</v>
+        <v>11.44107832049109</v>
       </c>
       <c r="L25">
-        <v>6.701232476556994</v>
+        <v>7.133273809652281</v>
       </c>
       <c r="M25">
-        <v>9.98980094070158</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.61403239289548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32440254018112</v>
+        <v>24.34203318033731</v>
       </c>
       <c r="C2">
-        <v>18.9581337471701</v>
+        <v>19.18441896181577</v>
       </c>
       <c r="D2">
-        <v>12.80174516896833</v>
+        <v>12.80230225222942</v>
       </c>
       <c r="E2">
-        <v>14.43069109436877</v>
+        <v>14.43179698621748</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.70056520120118</v>
+        <v>21.6800166939689</v>
       </c>
       <c r="H2">
-        <v>1.792808247977145</v>
+        <v>1.794213384521879</v>
       </c>
       <c r="I2">
-        <v>2.783402462184272</v>
+        <v>2.823550928980084</v>
       </c>
       <c r="J2">
-        <v>8.823846758518309</v>
+        <v>9.256884385798708</v>
       </c>
       <c r="K2">
-        <v>11.87760896392752</v>
+        <v>11.66794727237042</v>
       </c>
       <c r="L2">
-        <v>6.840272979298153</v>
+        <v>10.49196291039378</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.73862482159939</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.841006029084825</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.50337856821968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.3342057069534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.73330771057907</v>
+        <v>22.75909153489359</v>
       </c>
       <c r="C3">
-        <v>17.76761357451896</v>
+        <v>17.89820983523986</v>
       </c>
       <c r="D3">
-        <v>12.24026030284582</v>
+        <v>12.24531691274197</v>
       </c>
       <c r="E3">
-        <v>13.77680128844331</v>
+        <v>13.78686586335093</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.17330231973341</v>
+        <v>21.23277927245193</v>
       </c>
       <c r="H3">
-        <v>1.578275906400692</v>
+        <v>1.565524656714202</v>
       </c>
       <c r="I3">
-        <v>2.621099680542596</v>
+        <v>2.678977507157102</v>
       </c>
       <c r="J3">
-        <v>8.840909119510304</v>
+        <v>9.248115673586408</v>
       </c>
       <c r="K3">
-        <v>12.16122553396586</v>
+        <v>11.94830101791832</v>
       </c>
       <c r="L3">
-        <v>6.632667536300242</v>
+        <v>10.7134657629671</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.976941385225949</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.639257560221878</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.41292326109158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.26927063918402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6967939446826</v>
+        <v>21.72785924767875</v>
       </c>
       <c r="C4">
-        <v>16.99956731621434</v>
+        <v>17.06716790428387</v>
       </c>
       <c r="D4">
-        <v>11.88446595474568</v>
+        <v>11.89248096986195</v>
       </c>
       <c r="E4">
-        <v>13.35967713106773</v>
+        <v>13.37565347331991</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.86004961641675</v>
+        <v>20.97035835442513</v>
       </c>
       <c r="H4">
-        <v>1.740913283410733</v>
+        <v>1.721048974302852</v>
       </c>
       <c r="I4">
-        <v>2.519015153101476</v>
+        <v>2.588188712728249</v>
       </c>
       <c r="J4">
-        <v>8.855376443743081</v>
+        <v>9.244234704056463</v>
       </c>
       <c r="K4">
-        <v>12.34048719852009</v>
+        <v>12.12429319334</v>
       </c>
       <c r="L4">
-        <v>6.501097592349954</v>
+        <v>10.85545307939009</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.142436205604567</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.511466273248377</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.3655619808679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.23586440197382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.25924245167739</v>
+        <v>21.29254098708816</v>
       </c>
       <c r="C5">
-        <v>16.69116433645858</v>
+        <v>16.73169816714746</v>
       </c>
       <c r="D5">
-        <v>11.73678538790091</v>
+        <v>11.7460603245136</v>
       </c>
       <c r="E5">
-        <v>13.18575246235095</v>
+        <v>13.20425057367152</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.71905891309877</v>
+        <v>20.85069144102195</v>
       </c>
       <c r="H5">
-        <v>1.808814030777973</v>
+        <v>1.78600095855292</v>
       </c>
       <c r="I5">
-        <v>2.477562318652197</v>
+        <v>2.551702070628364</v>
       </c>
       <c r="J5">
-        <v>8.859599614989143</v>
+        <v>9.240499772362382</v>
       </c>
       <c r="K5">
-        <v>12.41043991796167</v>
+        <v>12.1928612881076</v>
       </c>
       <c r="L5">
-        <v>6.446384056108275</v>
+        <v>10.91041247469203</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.212937754896634</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.458342218649657</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.34161877273744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.21741637008765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.18550696246769</v>
+        <v>21.21917914945449</v>
       </c>
       <c r="C6">
-        <v>16.65635390353617</v>
+        <v>16.69193296709802</v>
       </c>
       <c r="D6">
-        <v>11.71201861690838</v>
+        <v>11.72150878475046</v>
       </c>
       <c r="E6">
-        <v>13.15646505027019</v>
+        <v>13.17539403283164</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.67618862088711</v>
+        <v>20.81171709700893</v>
       </c>
       <c r="H6">
-        <v>1.820401408250124</v>
+        <v>1.797088920082545</v>
       </c>
       <c r="I6">
-        <v>2.482501929557214</v>
+        <v>2.54712809330177</v>
       </c>
       <c r="J6">
-        <v>8.857132504415047</v>
+        <v>9.236822959912109</v>
       </c>
       <c r="K6">
-        <v>12.41681156149535</v>
+        <v>12.19928737593384</v>
       </c>
       <c r="L6">
-        <v>6.437121392643212</v>
+        <v>10.9142719544571</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.223069783806342</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.449349950362886</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.32965177369223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.20663037787603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.69049751581708</v>
+        <v>21.72135810920316</v>
       </c>
       <c r="C7">
-        <v>17.0407028665515</v>
+        <v>17.09993232829329</v>
       </c>
       <c r="D7">
-        <v>11.88224250159479</v>
+        <v>11.89003598675913</v>
       </c>
       <c r="E7">
-        <v>13.35686415029242</v>
+        <v>13.37239863815205</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.80496012359776</v>
+        <v>20.99895459632721</v>
       </c>
       <c r="H7">
-        <v>1.74242345288031</v>
+        <v>1.723109543609478</v>
       </c>
       <c r="I7">
-        <v>2.521207827026253</v>
+        <v>2.59086176207003</v>
       </c>
       <c r="J7">
-        <v>8.846633061835146</v>
+        <v>9.196501665153457</v>
       </c>
       <c r="K7">
-        <v>12.32686124545059</v>
+        <v>12.106879320711</v>
       </c>
       <c r="L7">
-        <v>6.500050447560623</v>
+        <v>10.83708552689417</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.135907577666465</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.510132167957676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.34315004569967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.20196903385951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78758109315312</v>
+        <v>23.80727620925532</v>
       </c>
       <c r="C8">
-        <v>18.61080130109716</v>
+        <v>18.78230224204825</v>
       </c>
       <c r="D8">
-        <v>12.61023917423767</v>
+        <v>12.61158740744903</v>
       </c>
       <c r="E8">
-        <v>14.20798137854856</v>
+        <v>14.21066021055096</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.44839336680178</v>
+        <v>21.72462040569433</v>
       </c>
       <c r="H8">
-        <v>1.707182431722013</v>
+        <v>1.710556018814884</v>
       </c>
       <c r="I8">
-        <v>2.730877086517983</v>
+        <v>2.776655026770682</v>
       </c>
       <c r="J8">
-        <v>8.817307115295066</v>
+        <v>9.114098283955586</v>
       </c>
       <c r="K8">
-        <v>11.95492142616075</v>
+        <v>11.73077429034738</v>
       </c>
       <c r="L8">
-        <v>6.769182804904617</v>
+        <v>10.53647595429841</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.797728097668173</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.770951582014846</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.4415971978718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.24212404067199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.43020013580281</v>
+        <v>27.43047513749722</v>
       </c>
       <c r="C9">
-        <v>21.32256727458634</v>
+        <v>21.70812936553811</v>
       </c>
       <c r="D9">
-        <v>13.94472339364845</v>
+        <v>13.93572263773207</v>
       </c>
       <c r="E9">
-        <v>15.7487791377731</v>
+        <v>15.73103007001129</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.88135643725061</v>
+        <v>23.02652934646115</v>
       </c>
       <c r="H9">
-        <v>2.301066123553318</v>
+        <v>2.277407858422151</v>
       </c>
       <c r="I9">
-        <v>3.12004781770588</v>
+        <v>3.122504009763301</v>
       </c>
       <c r="J9">
-        <v>8.808847146845041</v>
+        <v>9.120021429771711</v>
       </c>
       <c r="K9">
-        <v>11.29364194180188</v>
+        <v>11.06445862496859</v>
       </c>
       <c r="L9">
-        <v>7.26377765224842</v>
+        <v>10.03409402620477</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.319701506669335</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.251780390144423</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.74136518018692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.45780733826143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.82050942766019</v>
+        <v>29.80617349882958</v>
       </c>
       <c r="C10">
-        <v>23.12238267195847</v>
+        <v>23.60000331553278</v>
       </c>
       <c r="D10">
-        <v>14.72482212591929</v>
+        <v>14.70806152465191</v>
       </c>
       <c r="E10">
-        <v>16.54790603839233</v>
+        <v>16.51488797001755</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.71764131270599</v>
+        <v>24.22740035022529</v>
       </c>
       <c r="H10">
-        <v>2.696723621819345</v>
+        <v>2.651694554579963</v>
       </c>
       <c r="I10">
-        <v>3.391609652825561</v>
+        <v>3.362850629822062</v>
       </c>
       <c r="J10">
-        <v>8.780181203250805</v>
+        <v>8.87874095670902</v>
       </c>
       <c r="K10">
-        <v>10.78377922849425</v>
+        <v>10.5279144053286</v>
       </c>
       <c r="L10">
-        <v>7.503699835427439</v>
+        <v>9.6537585857034</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.01976037062482</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.48108395818569</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.89346807540784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.48250318398115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82703191796706</v>
+        <v>30.80674561792388</v>
       </c>
       <c r="C11">
-        <v>23.69435895018811</v>
+        <v>24.03678002255294</v>
       </c>
       <c r="D11">
-        <v>13.89076041650516</v>
+        <v>13.87028733897183</v>
       </c>
       <c r="E11">
-        <v>14.78551729798312</v>
+        <v>14.74302811526201</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.99175157195485</v>
+        <v>23.54686174586466</v>
       </c>
       <c r="H11">
-        <v>3.401889356659467</v>
+        <v>3.358330020293072</v>
       </c>
       <c r="I11">
-        <v>3.474798312224449</v>
+        <v>3.434970465871333</v>
       </c>
       <c r="J11">
-        <v>8.404536524277859</v>
+        <v>8.158345830783654</v>
       </c>
       <c r="K11">
-        <v>10.18019146560019</v>
+        <v>9.976982116962638</v>
       </c>
       <c r="L11">
-        <v>6.791866328449014</v>
+        <v>9.319654408381925</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.55334997632248</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.76226734952682</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.05151383523018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.5581537881332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.19233586045443</v>
+        <v>31.17055386300855</v>
       </c>
       <c r="C12">
-        <v>23.75473686310087</v>
+        <v>23.98326611154286</v>
       </c>
       <c r="D12">
-        <v>13.01572305777373</v>
+        <v>12.99414641649495</v>
       </c>
       <c r="E12">
-        <v>13.16608181828407</v>
+        <v>13.11886001509091</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>21.40167846166256</v>
+        <v>22.4927481292347</v>
       </c>
       <c r="H12">
-        <v>4.512098035705915</v>
+        <v>4.478281324819319</v>
       </c>
       <c r="I12">
-        <v>3.487702549746152</v>
+        <v>3.444372033201059</v>
       </c>
       <c r="J12">
-        <v>8.105438336535249</v>
+        <v>7.78239826509932</v>
       </c>
       <c r="K12">
-        <v>9.841046965469056</v>
+        <v>9.705131368037964</v>
       </c>
       <c r="L12">
-        <v>6.234201441082242</v>
+        <v>9.178718200905116</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.273477074093138</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.201354109042489</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.33284698676818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.8426991875967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.09874227324325</v>
+        <v>31.07908322413309</v>
       </c>
       <c r="C13">
-        <v>23.48080119792685</v>
+        <v>23.61337127167272</v>
       </c>
       <c r="D13">
-        <v>12.03644186700081</v>
+        <v>12.01591279311278</v>
       </c>
       <c r="E13">
-        <v>11.54596186247946</v>
+        <v>11.49829858396272</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.71686681573366</v>
+        <v>20.79585957769305</v>
       </c>
       <c r="H13">
-        <v>5.73901265613088</v>
+        <v>5.714855041663006</v>
       </c>
       <c r="I13">
-        <v>3.450891621226049</v>
+        <v>3.411809329916172</v>
       </c>
       <c r="J13">
-        <v>7.834829411248156</v>
+        <v>7.651757879054581</v>
       </c>
       <c r="K13">
-        <v>9.669524531064971</v>
+        <v>9.608525466258182</v>
       </c>
       <c r="L13">
-        <v>5.780351240311856</v>
+        <v>9.136711951218295</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.127052285508076</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.748044685848783</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.63061759519897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.23656324412315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.82443493606058</v>
+        <v>30.80782373484099</v>
       </c>
       <c r="C14">
-        <v>23.14442075861921</v>
+        <v>23.21561151137092</v>
       </c>
       <c r="D14">
-        <v>11.29598261170042</v>
+        <v>11.27711771808086</v>
       </c>
       <c r="E14">
-        <v>10.43020604940091</v>
+        <v>10.38441186230041</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18.47538250428115</v>
+        <v>19.30510472548111</v>
       </c>
       <c r="H14">
-        <v>6.639546903657894</v>
+        <v>6.621200263648522</v>
       </c>
       <c r="I14">
-        <v>3.403816579645901</v>
+        <v>3.371441492119904</v>
       </c>
       <c r="J14">
-        <v>7.658956092209696</v>
+        <v>7.64746936001989</v>
       </c>
       <c r="K14">
-        <v>9.632962935315321</v>
+        <v>9.616817705313707</v>
       </c>
       <c r="L14">
-        <v>5.541141670238329</v>
+        <v>9.142591356593382</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.094883351382052</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.511258421347931</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.14554079354754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.8558073160604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.65815093712646</v>
+        <v>30.64304229408363</v>
       </c>
       <c r="C15">
-        <v>23.00360612562998</v>
+        <v>23.06207846273258</v>
       </c>
       <c r="D15">
-        <v>11.09280095619697</v>
+        <v>11.07481171890558</v>
       </c>
       <c r="E15">
-        <v>10.15421423714555</v>
+        <v>10.11008025193751</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>18.13872289645785</v>
+        <v>18.80706096321921</v>
       </c>
       <c r="H15">
-        <v>6.844177087810559</v>
+        <v>6.827524952907095</v>
       </c>
       <c r="I15">
-        <v>3.382580564799224</v>
+        <v>3.353962341627242</v>
       </c>
       <c r="J15">
-        <v>7.620150687232681</v>
+        <v>7.681827269026202</v>
       </c>
       <c r="K15">
-        <v>9.652448931211982</v>
+        <v>9.645514324643406</v>
       </c>
       <c r="L15">
-        <v>5.492168873704416</v>
+        <v>9.154909994904402</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.111796829126697</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.463740025519288</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.02599179697236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.77720124189799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.69877182961696</v>
+        <v>29.69081049715986</v>
       </c>
       <c r="C16">
-        <v>22.32661652416559</v>
+        <v>22.40595860546319</v>
       </c>
       <c r="D16">
-        <v>10.91142570984657</v>
+        <v>10.89787337614005</v>
       </c>
       <c r="E16">
-        <v>10.0662455214247</v>
+        <v>10.03322468814308</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18.02604428385276</v>
+        <v>17.87754134650185</v>
       </c>
       <c r="H16">
-        <v>6.563865857098951</v>
+        <v>6.551817326571041</v>
       </c>
       <c r="I16">
-        <v>3.276176471633476</v>
+        <v>3.263775969453241</v>
       </c>
       <c r="J16">
-        <v>7.684410045682973</v>
+        <v>8.026373110820446</v>
       </c>
       <c r="K16">
-        <v>9.906319982625652</v>
+        <v>9.892011007619802</v>
       </c>
       <c r="L16">
-        <v>5.465519022888918</v>
+        <v>9.261835063519909</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.33314954887105</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.444423519284354</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.08598858702181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.96346099141224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.09871253945478</v>
+        <v>29.09442256461341</v>
       </c>
       <c r="C17">
-        <v>21.98566595822886</v>
+        <v>22.10728652839607</v>
       </c>
       <c r="D17">
-        <v>11.17797626188468</v>
+        <v>11.16674882782553</v>
       </c>
       <c r="E17">
-        <v>10.59159183092758</v>
+        <v>10.56503413524328</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>18.61393976683999</v>
+        <v>18.08841166250289</v>
       </c>
       <c r="H17">
-        <v>5.818952768395621</v>
+        <v>5.808110535689017</v>
       </c>
       <c r="I17">
-        <v>3.219543983316163</v>
+        <v>3.215642722564872</v>
       </c>
       <c r="J17">
-        <v>7.825514560432564</v>
+        <v>8.278585127480381</v>
       </c>
       <c r="K17">
-        <v>10.114141347831</v>
+        <v>10.08028932978082</v>
       </c>
       <c r="L17">
-        <v>5.557552401035028</v>
+        <v>9.35772340644788</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.50572029817306</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.540255607179865</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.38822355429425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.29520824098645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.75458164795325</v>
+        <v>28.75162200869695</v>
       </c>
       <c r="C18">
-        <v>21.87379041287528</v>
+        <v>22.07349047275895</v>
       </c>
       <c r="D18">
-        <v>11.86434102081761</v>
+        <v>11.85400938991802</v>
       </c>
       <c r="E18">
-        <v>11.77374320334137</v>
+        <v>11.75051460097175</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>19.90192912064968</v>
+        <v>19.15873623677495</v>
       </c>
       <c r="H18">
-        <v>4.634912253148928</v>
+        <v>4.622295579399097</v>
       </c>
       <c r="I18">
-        <v>3.197763976816513</v>
+        <v>3.195958879308526</v>
       </c>
       <c r="J18">
-        <v>8.056567933771856</v>
+        <v>8.536610076654256</v>
       </c>
       <c r="K18">
-        <v>10.33678234620828</v>
+        <v>10.26874765392224</v>
       </c>
       <c r="L18">
-        <v>5.845233691388318</v>
+        <v>9.473745510522447</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.67625833087903</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.829633014638784</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.95031501317087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.83156447414462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.64711978341952</v>
+        <v>28.64350601785782</v>
       </c>
       <c r="C19">
-        <v>22.02415502912175</v>
+        <v>22.32636965113195</v>
       </c>
       <c r="D19">
-        <v>12.83348962950414</v>
+        <v>12.82286282366044</v>
       </c>
       <c r="E19">
-        <v>13.4564491100765</v>
+        <v>13.43391794719247</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.56633952970141</v>
+        <v>20.6778312800056</v>
       </c>
       <c r="H19">
-        <v>3.359751745726188</v>
+        <v>3.340910337907316</v>
       </c>
       <c r="I19">
-        <v>3.215595080508447</v>
+        <v>3.212856717911758</v>
       </c>
       <c r="J19">
-        <v>8.333971093913577</v>
+        <v>8.794665028280557</v>
       </c>
       <c r="K19">
-        <v>10.57482867436541</v>
+        <v>10.45743178785683</v>
       </c>
       <c r="L19">
-        <v>6.369607185878936</v>
+        <v>9.603460796838654</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.847931931083964</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.35419183272871</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.65226710727459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.47485692284115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.2106271217689</v>
+        <v>29.2007870073155</v>
       </c>
       <c r="C20">
-        <v>22.77005388014843</v>
+        <v>23.23985009194833</v>
       </c>
       <c r="D20">
-        <v>14.51688853388107</v>
+        <v>14.50276819781994</v>
       </c>
       <c r="E20">
-        <v>16.32988472502695</v>
+        <v>16.30204942474737</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.33764625670782</v>
+        <v>23.48845854385246</v>
       </c>
       <c r="H20">
-        <v>2.591065332804191</v>
+        <v>2.553318702824584</v>
       </c>
       <c r="I20">
-        <v>3.329414333118049</v>
+        <v>3.31334295557057</v>
       </c>
       <c r="J20">
-        <v>8.757637241653061</v>
+        <v>9.048714115538877</v>
       </c>
       <c r="K20">
-        <v>10.86763316919886</v>
+        <v>10.64227550706588</v>
       </c>
       <c r="L20">
-        <v>7.436441733674905</v>
+        <v>9.734121472138471</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.067158133985695</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.417434610096694</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.78078063642766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.44975089526403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.96026319257976</v>
+        <v>30.93566142759548</v>
       </c>
       <c r="C21">
-        <v>24.11266666009768</v>
+        <v>24.57300638508718</v>
       </c>
       <c r="D21">
-        <v>15.3071760868946</v>
+        <v>15.28409004256101</v>
       </c>
       <c r="E21">
-        <v>17.30333947703861</v>
+        <v>17.25828184676861</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.39606529892993</v>
+        <v>26.19625560140735</v>
       </c>
       <c r="H21">
-        <v>2.913806852922698</v>
+        <v>2.850917098528125</v>
       </c>
       <c r="I21">
-        <v>3.540775240138711</v>
+        <v>3.493015737855294</v>
       </c>
       <c r="J21">
-        <v>8.812984874733841</v>
+        <v>8.273121515240581</v>
       </c>
       <c r="K21">
-        <v>10.56309543418943</v>
+        <v>10.21273772524617</v>
       </c>
       <c r="L21">
-        <v>7.771464107028472</v>
+        <v>9.449650011063843</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.841451896203285</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.740524285656883</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.08706485071019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.41733104700162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05250525974384</v>
+        <v>32.01835285617995</v>
       </c>
       <c r="C22">
-        <v>24.90063234991852</v>
+        <v>25.34233325381573</v>
       </c>
       <c r="D22">
-        <v>15.74052190809691</v>
+        <v>15.71185641223662</v>
       </c>
       <c r="E22">
-        <v>17.79530718314653</v>
+        <v>17.73957018144497</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.02946438143375</v>
+        <v>28.00080368864852</v>
       </c>
       <c r="H22">
-        <v>3.112321426870415</v>
+        <v>3.033550085425674</v>
       </c>
       <c r="I22">
-        <v>3.671382125966714</v>
+        <v>3.602325289358107</v>
       </c>
       <c r="J22">
-        <v>8.844143206015717</v>
+        <v>7.77443441998739</v>
       </c>
       <c r="K22">
-        <v>10.36807085298489</v>
+        <v>9.927178637976304</v>
       </c>
       <c r="L22">
-        <v>7.934201069081198</v>
+        <v>9.271969261180622</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.70307276322526</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.895790504175211</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.27001348361252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.36363323694755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.47452470135072</v>
+        <v>31.44584054666894</v>
       </c>
       <c r="C23">
-        <v>24.44401056854947</v>
+        <v>24.91013678339416</v>
       </c>
       <c r="D23">
-        <v>15.5106015888232</v>
+        <v>15.48524084469921</v>
       </c>
       <c r="E23">
-        <v>17.53457823417497</v>
+        <v>17.4851655397739</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.74379927283009</v>
+        <v>26.89557289410824</v>
       </c>
       <c r="H23">
-        <v>3.007218353942727</v>
+        <v>2.93784168327931</v>
       </c>
       <c r="I23">
-        <v>3.598568275157919</v>
+        <v>3.540405125602502</v>
       </c>
       <c r="J23">
-        <v>8.837073121178371</v>
+        <v>8.120863554264426</v>
       </c>
       <c r="K23">
-        <v>10.48965724887098</v>
+        <v>10.10532601342126</v>
       </c>
       <c r="L23">
-        <v>7.847977265659834</v>
+        <v>9.378994357553429</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.80464047011061</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.813988289467426</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.19559955752126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.44540035378652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.18370426355822</v>
+        <v>29.17384632641311</v>
       </c>
       <c r="C24">
-        <v>22.7085158414234</v>
+        <v>23.19059013380031</v>
       </c>
       <c r="D24">
-        <v>14.61386714358115</v>
+        <v>14.5997332916903</v>
       </c>
       <c r="E24">
-        <v>16.51409252079235</v>
+        <v>16.4863519292221</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.59450533661995</v>
+        <v>23.7167220742139</v>
       </c>
       <c r="H24">
-        <v>2.600502711220187</v>
+        <v>2.562633712454156</v>
       </c>
       <c r="I24">
-        <v>3.324300780279376</v>
+        <v>3.306209678572717</v>
       </c>
       <c r="J24">
-        <v>8.804792752080944</v>
+        <v>9.096865546803796</v>
       </c>
       <c r="K24">
-        <v>10.93416319794148</v>
+        <v>10.69790895620106</v>
       </c>
       <c r="L24">
-        <v>7.512589322361052</v>
+        <v>9.77069552358817</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.118401483812676</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.493676891633299</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.89533020194505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.55777167872189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.49413093370605</v>
+        <v>26.49983136316583</v>
       </c>
       <c r="C25">
-        <v>20.6891634017105</v>
+        <v>21.02678807498231</v>
       </c>
       <c r="D25">
-        <v>13.59411584677529</v>
+        <v>13.58807465257176</v>
       </c>
       <c r="E25">
-        <v>15.34569678507537</v>
+        <v>15.33375762797138</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.39689731179727</v>
+        <v>22.46681436686843</v>
       </c>
       <c r="H25">
-        <v>2.143930862212418</v>
+        <v>2.12823167163766</v>
       </c>
       <c r="I25">
-        <v>3.021249250319794</v>
+        <v>3.037415557827324</v>
       </c>
       <c r="J25">
-        <v>8.791647120632454</v>
+        <v>9.157164916777472</v>
       </c>
       <c r="K25">
-        <v>11.44107832049109</v>
+        <v>11.22427902426729</v>
       </c>
       <c r="L25">
-        <v>7.133273809652281</v>
+        <v>10.15193736705464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.415763103983068</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.125245920244352</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.61403239289548</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.37362560266162</v>
       </c>
     </row>
   </sheetData>
